--- a/feedback/Container_Fundamentals_300_05312018.xlsx
+++ b/feedback/Container_Fundamentals_300_05312018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="300 Container Fundamentals" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="221">
   <si>
     <t>TEKsystems QA</t>
   </si>
@@ -1868,6 +1868,9 @@
   </si>
   <si>
     <t>Although the suggestion was copy, I feel that "image" more accurately describes the way things work here than saying copy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which slide is this? </t>
   </si>
 </sst>
 </file>
@@ -2191,6 +2194,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2234,27 +2253,445 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="245">
+  <dxfs count="307">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4120,15 +4557,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>18450</xdr:rowOff>
+      <xdr:rowOff>37500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1623471</xdr:colOff>
+      <xdr:colOff>1636171</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>139373</xdr:rowOff>
+      <xdr:rowOff>158423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4151,8 +4588,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7673340" y="42378030"/>
-          <a:ext cx="1623471" cy="1216298"/>
+          <a:off x="8547100" y="39826600"/>
+          <a:ext cx="1623471" cy="1213123"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4488,8 +4925,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67:H70"/>
+    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="252" workbookViewId="0">
+      <selection activeCell="C100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4501,69 +4938,69 @@
     <col min="5" max="5" width="52.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="15" customWidth="1"/>
     <col min="10" max="10" width="58.5" style="7" customWidth="1"/>
     <col min="11" max="16384" width="17.5" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="20" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" ht="39" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -4584,13 +5021,13 @@
       <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -4614,7 +5051,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="32">
+      <c r="G6" s="18">
         <v>43300</v>
       </c>
       <c r="H6" s="15" t="s">
@@ -4641,7 +5078,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="32">
+      <c r="G7" s="18">
         <v>43300</v>
       </c>
       <c r="H7" s="15" t="s">
@@ -4668,7 +5105,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="32">
+      <c r="G8" s="18">
         <v>43300</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -4695,7 +5132,7 @@
         <v>218</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="32">
+      <c r="G9" s="18">
         <v>43300</v>
       </c>
       <c r="H9" s="15" t="s">
@@ -4720,7 +5157,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="15" t="s">
         <v>28</v>
       </c>
@@ -4742,7 +5179,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="32">
+      <c r="G11" s="18">
         <v>43300</v>
       </c>
       <c r="H11" s="15" t="s">
@@ -4767,7 +5204,7 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="32">
+      <c r="G12" s="18">
         <v>43300</v>
       </c>
       <c r="H12" s="15" t="s">
@@ -4794,7 +5231,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="32">
+      <c r="G13" s="18">
         <v>43300</v>
       </c>
       <c r="H13" s="15" t="s">
@@ -4822,7 +5259,7 @@
         <v>62</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="32">
+      <c r="G14" s="18">
         <v>43300</v>
       </c>
       <c r="H14" s="15" t="s">
@@ -4850,7 +5287,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="32">
+      <c r="G15" s="18">
         <v>43300</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -4872,7 +5309,7 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="32">
+      <c r="G16" s="18">
         <v>43300</v>
       </c>
       <c r="H16" s="15" t="s">
@@ -4896,7 +5333,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="32">
+      <c r="G17" s="18">
         <v>43300</v>
       </c>
       <c r="H17" s="15" t="s">
@@ -4920,7 +5357,7 @@
         <v>58</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="32">
+      <c r="G18" s="18">
         <v>43300</v>
       </c>
       <c r="H18" s="15" t="s">
@@ -4947,7 +5384,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="32">
+      <c r="G19" s="18">
         <v>43300</v>
       </c>
       <c r="H19" s="15" t="s">
@@ -4974,7 +5411,7 @@
         <v>64</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="32">
+      <c r="G20" s="18">
         <v>43300</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -5001,7 +5438,7 @@
         <v>66</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="32">
+      <c r="G21" s="18">
         <v>43300</v>
       </c>
       <c r="H21" s="15" t="s">
@@ -5028,7 +5465,7 @@
         <v>69</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="32">
+      <c r="G22" s="18">
         <v>43300</v>
       </c>
       <c r="H22" s="15" t="s">
@@ -5055,7 +5492,7 @@
         <v>64</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="32">
+      <c r="G23" s="18">
         <v>43300</v>
       </c>
       <c r="H23" s="15" t="s">
@@ -5082,7 +5519,7 @@
         <v>71</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="32">
+      <c r="G24" s="18">
         <v>43300</v>
       </c>
       <c r="H24" s="15" t="s">
@@ -5109,7 +5546,7 @@
         <v>72</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="32">
+      <c r="G25" s="18">
         <v>43300</v>
       </c>
       <c r="H25" s="15" t="s">
@@ -5136,7 +5573,7 @@
         <v>165</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="32">
+      <c r="G26" s="18">
         <v>43300</v>
       </c>
       <c r="H26" s="15" t="s">
@@ -5163,7 +5600,7 @@
         <v>166</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="32">
+      <c r="G27" s="18">
         <v>43300</v>
       </c>
       <c r="H27" s="15" t="s">
@@ -5190,7 +5627,7 @@
         <v>77</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="32">
+      <c r="G28" s="18">
         <v>43300</v>
       </c>
       <c r="H28" s="15" t="s">
@@ -5217,7 +5654,7 @@
         <v>80</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="32">
+      <c r="G29" s="18">
         <v>43300</v>
       </c>
       <c r="H29" s="15" t="s">
@@ -5244,7 +5681,7 @@
         <v>81</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="32">
+      <c r="G30" s="18">
         <v>43300</v>
       </c>
       <c r="H30" s="15" t="s">
@@ -5271,7 +5708,7 @@
         <v>78</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="32">
+      <c r="G31" s="18">
         <v>43300</v>
       </c>
       <c r="H31" s="15" t="s">
@@ -5298,7 +5735,7 @@
         <v>82</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="32">
+      <c r="G32" s="18">
         <v>43300</v>
       </c>
       <c r="H32" s="15" t="s">
@@ -5325,7 +5762,7 @@
         <v>87</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="32">
+      <c r="G33" s="18">
         <v>43300</v>
       </c>
       <c r="H33" s="15" t="s">
@@ -5352,7 +5789,7 @@
         <v>89</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="32">
+      <c r="G34" s="18">
         <v>43300</v>
       </c>
       <c r="H34" s="15" t="s">
@@ -5379,7 +5816,7 @@
         <v>91</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="32">
+      <c r="G35" s="18">
         <v>43300</v>
       </c>
       <c r="H35" s="15" t="s">
@@ -5404,7 +5841,7 @@
         <v>93</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="32">
+      <c r="G36" s="18">
         <v>43300</v>
       </c>
       <c r="H36" s="15" t="s">
@@ -5431,7 +5868,7 @@
         <v>95</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="32">
+      <c r="G37" s="18">
         <v>43300</v>
       </c>
       <c r="H37" s="15" t="s">
@@ -5458,7 +5895,7 @@
         <v>95</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="32">
+      <c r="G38" s="18">
         <v>43300</v>
       </c>
       <c r="H38" s="15" t="s">
@@ -5485,7 +5922,7 @@
         <v>97</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="32">
+      <c r="G39" s="18">
         <v>43300</v>
       </c>
       <c r="H39" s="15" t="s">
@@ -5512,7 +5949,7 @@
         <v>100</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="32">
+      <c r="G40" s="18">
         <v>43300</v>
       </c>
       <c r="H40" s="15" t="s">
@@ -5539,7 +5976,7 @@
         <v>95</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="32">
+      <c r="G41" s="18">
         <v>43300</v>
       </c>
       <c r="H41" s="15" t="s">
@@ -5564,7 +6001,7 @@
         <v>102</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="32">
+      <c r="G42" s="18">
         <v>43300</v>
       </c>
       <c r="H42" s="15" t="s">
@@ -5591,7 +6028,7 @@
         <v>104</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="32">
+      <c r="G43" s="18">
         <v>43300</v>
       </c>
       <c r="H43" s="15" t="s">
@@ -5618,7 +6055,7 @@
         <v>95</v>
       </c>
       <c r="F44" s="6"/>
-      <c r="G44" s="32">
+      <c r="G44" s="18">
         <v>43300</v>
       </c>
       <c r="H44" s="15" t="s">
@@ -5645,7 +6082,7 @@
         <v>105</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="32">
+      <c r="G45" s="18">
         <v>43300</v>
       </c>
       <c r="H45" s="15" t="s">
@@ -5672,7 +6109,7 @@
         <v>95</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="32">
+      <c r="G46" s="18">
         <v>43300</v>
       </c>
       <c r="H46" s="15" t="s">
@@ -5699,7 +6136,7 @@
         <v>169</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="32">
+      <c r="G47" s="18">
         <v>43300</v>
       </c>
       <c r="H47" s="15" t="s">
@@ -5726,7 +6163,7 @@
         <v>34</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="32">
+      <c r="G48" s="18">
         <v>43300</v>
       </c>
       <c r="H48" s="15" t="s">
@@ -5754,7 +6191,7 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="32">
+      <c r="G49" s="18">
         <v>43300</v>
       </c>
       <c r="H49" s="15" t="s">
@@ -5779,7 +6216,7 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="32">
+      <c r="G50" s="18">
         <v>43300</v>
       </c>
       <c r="H50" s="15" t="s">
@@ -5806,7 +6243,7 @@
         <v>111</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="32">
+      <c r="G51" s="18">
         <v>43300</v>
       </c>
       <c r="H51" s="15" t="s">
@@ -5833,7 +6270,7 @@
         <v>120</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="32">
+      <c r="G52" s="18">
         <v>43300</v>
       </c>
       <c r="H52" s="15" t="s">
@@ -5860,7 +6297,7 @@
         <v>95</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="32">
+      <c r="G53" s="18">
         <v>43300</v>
       </c>
       <c r="H53" s="15" t="s">
@@ -5887,7 +6324,7 @@
         <v>95</v>
       </c>
       <c r="F54" s="6"/>
-      <c r="G54" s="32">
+      <c r="G54" s="18">
         <v>43300</v>
       </c>
       <c r="H54" s="15" t="s">
@@ -5897,7 +6334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="52" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>43251</v>
       </c>
@@ -5914,7 +6351,7 @@
         <v>95</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="32">
+      <c r="G55" s="18">
         <v>43300</v>
       </c>
       <c r="H55" s="15" t="s">
@@ -5941,7 +6378,7 @@
         <v>118</v>
       </c>
       <c r="F56" s="6"/>
-      <c r="G56" s="32">
+      <c r="G56" s="18">
         <v>43300</v>
       </c>
       <c r="H56" s="15" t="s">
@@ -5968,7 +6405,7 @@
         <v>121</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="32">
+      <c r="G57" s="18">
         <v>43300</v>
       </c>
       <c r="H57" s="15" t="s">
@@ -5995,7 +6432,7 @@
         <v>124</v>
       </c>
       <c r="F58" s="6"/>
-      <c r="G58" s="32">
+      <c r="G58" s="18">
         <v>43300</v>
       </c>
       <c r="H58" s="15" t="s">
@@ -6022,7 +6459,7 @@
         <v>34</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="32">
+      <c r="G59" s="18">
         <v>43300</v>
       </c>
       <c r="H59" s="15" t="s">
@@ -6049,7 +6486,7 @@
         <v>104</v>
       </c>
       <c r="F60" s="6"/>
-      <c r="G60" s="32">
+      <c r="G60" s="18">
         <v>43300</v>
       </c>
       <c r="H60" s="15" t="s">
@@ -6076,7 +6513,7 @@
         <v>127</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="32">
+      <c r="G61" s="18">
         <v>43300</v>
       </c>
       <c r="H61" s="15" t="s">
@@ -6103,7 +6540,7 @@
         <v>130</v>
       </c>
       <c r="F62" s="6"/>
-      <c r="G62" s="32">
+      <c r="G62" s="18">
         <v>43300</v>
       </c>
       <c r="H62" s="15" t="s">
@@ -6130,7 +6567,7 @@
         <v>132</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="32">
+      <c r="G63" s="18">
         <v>43300</v>
       </c>
       <c r="H63" s="15" t="s">
@@ -6157,7 +6594,7 @@
         <v>133</v>
       </c>
       <c r="F64" s="6"/>
-      <c r="G64" s="32">
+      <c r="G64" s="18">
         <v>43300</v>
       </c>
       <c r="H64" s="15" t="s">
@@ -6184,7 +6621,7 @@
         <v>136</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="32">
+      <c r="G65" s="18">
         <v>43300</v>
       </c>
       <c r="H65" s="15" t="s">
@@ -6211,7 +6648,7 @@
         <v>138</v>
       </c>
       <c r="F66" s="6"/>
-      <c r="G66" s="32">
+      <c r="G66" s="18">
         <v>43300</v>
       </c>
       <c r="H66" s="15" t="s">
@@ -6238,7 +6675,7 @@
         <v>144</v>
       </c>
       <c r="F67" s="6"/>
-      <c r="G67" s="32">
+      <c r="G67" s="18">
         <v>43300</v>
       </c>
       <c r="H67" s="15" t="s">
@@ -6265,7 +6702,7 @@
         <v>143</v>
       </c>
       <c r="F68" s="6"/>
-      <c r="G68" s="32">
+      <c r="G68" s="18">
         <v>43300</v>
       </c>
       <c r="H68" s="15" t="s">
@@ -6292,7 +6729,7 @@
         <v>145</v>
       </c>
       <c r="F69" s="6"/>
-      <c r="G69" s="32">
+      <c r="G69" s="18">
         <v>43300</v>
       </c>
       <c r="H69" s="15" t="s">
@@ -6319,7 +6756,7 @@
         <v>146</v>
       </c>
       <c r="F70" s="6"/>
-      <c r="G70" s="32">
+      <c r="G70" s="18">
         <v>43300</v>
       </c>
       <c r="H70" s="15" t="s">
@@ -6346,7 +6783,7 @@
         <v>148</v>
       </c>
       <c r="F71" s="6"/>
-      <c r="G71" s="32"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
@@ -6363,7 +6800,10 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="32"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
@@ -6380,7 +6820,7 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="32"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="1:9" ht="39" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
@@ -6399,7 +6839,10 @@
         <v>172</v>
       </c>
       <c r="F74" s="6"/>
-      <c r="G74" s="32"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="10">
@@ -6416,7 +6859,15 @@
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="32"/>
+      <c r="G75" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="10">
@@ -6431,7 +6882,12 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="32"/>
+      <c r="G76" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="39" x14ac:dyDescent="0.2">
       <c r="A77" s="10">
@@ -6448,7 +6904,7 @@
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="32"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
@@ -6465,7 +6921,7 @@
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="32"/>
+      <c r="G78" s="18"/>
     </row>
     <row r="79" spans="1:9" ht="52" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
@@ -6482,7 +6938,7 @@
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="32"/>
+      <c r="G79" s="18"/>
     </row>
     <row r="80" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
@@ -6499,9 +6955,9 @@
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="32"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>43252</v>
       </c>
@@ -6516,9 +6972,14 @@
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="32"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="10">
         <v>43252</v>
       </c>
@@ -6533,9 +6994,14 @@
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="32"/>
-    </row>
-    <row r="83" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="G82" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="39" x14ac:dyDescent="0.2">
       <c r="A83" s="10">
         <v>43252</v>
       </c>
@@ -6550,9 +7016,9 @@
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="32"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G83" s="18"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="10">
         <v>43252</v>
       </c>
@@ -6567,9 +7033,9 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="32"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G84" s="18"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="10">
         <v>43252</v>
       </c>
@@ -6584,9 +7050,9 @@
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="32"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G85" s="18"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="10">
         <v>43252</v>
       </c>
@@ -6601,9 +7067,9 @@
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="32"/>
-    </row>
-    <row r="87" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="G86" s="18"/>
+    </row>
+    <row r="87" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A87" s="10">
         <v>43252</v>
       </c>
@@ -6618,9 +7084,9 @@
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="32"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G87" s="18"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="10">
         <v>43252</v>
       </c>
@@ -6635,9 +7101,12 @@
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="32"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G88" s="18"/>
+      <c r="J88" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="10">
         <v>43252</v>
       </c>
@@ -6652,9 +7121,9 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="32"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G89" s="18"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="10">
         <v>43252</v>
       </c>
@@ -6669,9 +7138,14 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="32"/>
-    </row>
-    <row r="91" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="G90" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A91" s="10">
         <v>43252</v>
       </c>
@@ -6686,9 +7160,14 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="32"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G91" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="10">
         <v>43252</v>
       </c>
@@ -6703,9 +7182,9 @@
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="32"/>
-    </row>
-    <row r="93" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="G92" s="18"/>
+    </row>
+    <row r="93" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>43252</v>
       </c>
@@ -6720,9 +7199,9 @@
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="32"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <v>43252</v>
       </c>
@@ -6737,9 +7216,9 @@
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="32"/>
-    </row>
-    <row r="95" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="G94" s="18"/>
+    </row>
+    <row r="95" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A95" s="10">
         <v>43252</v>
       </c>
@@ -6754,9 +7233,9 @@
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="32"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G95" s="18"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="10">
         <v>43252</v>
       </c>
@@ -6771,9 +7250,9 @@
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="32"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G96" s="18"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>43252</v>
       </c>
@@ -6781,16 +7260,24 @@
         <v>13</v>
       </c>
       <c r="C97" s="14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>189</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="32"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G97" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <v>43252</v>
       </c>
@@ -6805,9 +7292,9 @@
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="32"/>
-    </row>
-    <row r="99" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="G98" s="18"/>
+    </row>
+    <row r="99" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A99" s="10">
         <v>43252</v>
       </c>
@@ -6815,16 +7302,24 @@
         <v>13</v>
       </c>
       <c r="C99" s="14">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="32"/>
-    </row>
-    <row r="100" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="G99" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" s="15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <v>43252</v>
       </c>
@@ -6832,31 +7327,47 @@
         <v>33</v>
       </c>
       <c r="C100" s="14">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>192</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="32"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="10">
         <v>43252</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="14">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>193</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="32"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="10">
         <v>43252</v>
       </c>
@@ -6871,9 +7382,9 @@
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="32"/>
-    </row>
-    <row r="103" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="G102" s="18"/>
+    </row>
+    <row r="103" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A103" s="10">
         <v>43252</v>
       </c>
@@ -6888,9 +7399,9 @@
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="32"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="18"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="10">
         <v>43252</v>
       </c>
@@ -6905,9 +7416,9 @@
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="32"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="18"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="10">
         <v>43252</v>
       </c>
@@ -6922,9 +7433,9 @@
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="32"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="18"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="10">
         <v>43252</v>
       </c>
@@ -6932,16 +7443,24 @@
         <v>13</v>
       </c>
       <c r="C106" s="14">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="32"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G106" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="10">
         <v>43252</v>
       </c>
@@ -6949,16 +7468,24 @@
         <v>33</v>
       </c>
       <c r="C107" s="14">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="32"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G107" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="10">
         <v>43252</v>
       </c>
@@ -6973,9 +7500,14 @@
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="32"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G108" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="10">
         <v>43252</v>
       </c>
@@ -6983,16 +7515,24 @@
         <v>33</v>
       </c>
       <c r="C109" s="14">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="32"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G109" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="10">
         <v>43252</v>
       </c>
@@ -7007,9 +7547,14 @@
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="32"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G110" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="10">
         <v>43252</v>
       </c>
@@ -7024,9 +7569,14 @@
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="32"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G111" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="10">
         <v>43252</v>
       </c>
@@ -7041,9 +7591,14 @@
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="32"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G112" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H112" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="10">
         <v>43252</v>
       </c>
@@ -7058,9 +7613,14 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="32"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G113" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H113" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="10">
         <v>43252</v>
       </c>
@@ -7075,9 +7635,9 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="32"/>
-    </row>
-    <row r="115" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="G114" s="18"/>
+    </row>
+    <row r="115" spans="1:9" ht="39" x14ac:dyDescent="0.2">
       <c r="A115" s="10">
         <v>43252</v>
       </c>
@@ -7092,9 +7652,9 @@
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="32"/>
-    </row>
-    <row r="116" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="G115" s="18"/>
+    </row>
+    <row r="116" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A116" s="10">
         <v>43252</v>
       </c>
@@ -7109,9 +7669,9 @@
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
-      <c r="G116" s="32"/>
-    </row>
-    <row r="117" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="G116" s="18"/>
+    </row>
+    <row r="117" spans="1:9" ht="26" x14ac:dyDescent="0.2">
       <c r="A117" s="10">
         <v>43252</v>
       </c>
@@ -7119,16 +7679,24 @@
         <v>33</v>
       </c>
       <c r="C117" s="14">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>203</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
-      <c r="G117" s="32"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G117" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H117" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I117" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="10">
         <v>43252</v>
       </c>
@@ -7136,16 +7704,24 @@
         <v>33</v>
       </c>
       <c r="C118" s="14">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>202</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
-      <c r="G118" s="32"/>
-    </row>
-    <row r="119" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+      <c r="G118" s="18">
+        <v>43300</v>
+      </c>
+      <c r="H118" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I118" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="39" x14ac:dyDescent="0.2">
       <c r="A119" s="10">
         <v>43252</v>
       </c>
@@ -7158,88 +7734,88 @@
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
-      <c r="G119" s="32"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="6"/>
       <c r="C120" s="14"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
-      <c r="G120" s="32"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G120" s="18"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="6"/>
       <c r="C121" s="14"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
-      <c r="G121" s="32"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G121" s="18"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="6"/>
       <c r="C122" s="14"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
-      <c r="G122" s="32"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G122" s="18"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="6"/>
       <c r="C123" s="14"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
-      <c r="G123" s="32"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G123" s="18"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="6"/>
       <c r="C124" s="14"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
-      <c r="G124" s="32"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G124" s="18"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="6"/>
       <c r="C125" s="14"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
-      <c r="G125" s="32"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G125" s="18"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="6"/>
       <c r="C126" s="14"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
-      <c r="G126" s="32"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G126" s="18"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
       <c r="B127" s="6"/>
       <c r="C127" s="14"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
-      <c r="G127" s="32"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G127" s="18"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
       <c r="B128" s="6"/>
       <c r="C128" s="14"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
-      <c r="G128" s="32"/>
+      <c r="G128" s="18"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
@@ -7248,7 +7824,7 @@
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
-      <c r="G129" s="32"/>
+      <c r="G129" s="18"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
@@ -7257,7 +7833,7 @@
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
-      <c r="G130" s="32"/>
+      <c r="G130" s="18"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
@@ -7266,7 +7842,7 @@
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
-      <c r="G131" s="32"/>
+      <c r="G131" s="18"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
@@ -7275,7 +7851,7 @@
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
-      <c r="G132" s="32"/>
+      <c r="G132" s="18"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
@@ -7284,7 +7860,7 @@
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
-      <c r="G133" s="32"/>
+      <c r="G133" s="18"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
@@ -7293,7 +7869,7 @@
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
-      <c r="G134" s="32"/>
+      <c r="G134" s="18"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="10"/>
@@ -7302,7 +7878,7 @@
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
-      <c r="G135" s="32"/>
+      <c r="G135" s="18"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="10"/>
@@ -7311,7 +7887,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
-      <c r="G136" s="32"/>
+      <c r="G136" s="18"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -7320,7 +7896,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
-      <c r="G137" s="32"/>
+      <c r="G137" s="18"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
@@ -7329,7 +7905,7 @@
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
-      <c r="G138" s="32"/>
+      <c r="G138" s="18"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="10"/>
@@ -7338,7 +7914,7 @@
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
-      <c r="G139" s="32"/>
+      <c r="G139" s="18"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="10"/>
@@ -7347,7 +7923,7 @@
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
-      <c r="G140" s="32"/>
+      <c r="G140" s="18"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
@@ -7356,7 +7932,7 @@
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
-      <c r="G141" s="32"/>
+      <c r="G141" s="18"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
@@ -7365,7 +7941,7 @@
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
-      <c r="G142" s="32"/>
+      <c r="G142" s="18"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
@@ -7374,7 +7950,7 @@
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
-      <c r="G143" s="32"/>
+      <c r="G143" s="18"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
@@ -7383,7 +7959,7 @@
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
-      <c r="G144" s="32"/>
+      <c r="G144" s="18"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
@@ -7392,7 +7968,7 @@
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
-      <c r="G145" s="32"/>
+      <c r="G145" s="18"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
@@ -7401,7 +7977,7 @@
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
-      <c r="G146" s="32"/>
+      <c r="G146" s="18"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
@@ -7410,7 +7986,7 @@
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
-      <c r="G147" s="32"/>
+      <c r="G147" s="18"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
@@ -7419,7 +7995,7 @@
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
-      <c r="G148" s="32"/>
+      <c r="G148" s="18"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
@@ -7428,7 +8004,7 @@
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="32"/>
+      <c r="G149" s="18"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
@@ -7437,7 +8013,7 @@
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
-      <c r="G150" s="32"/>
+      <c r="G150" s="18"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="10"/>
@@ -7446,7 +8022,7 @@
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
-      <c r="G151" s="32"/>
+      <c r="G151" s="18"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
@@ -7455,7 +8031,7 @@
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
-      <c r="G152" s="32"/>
+      <c r="G152" s="18"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
@@ -7464,7 +8040,7 @@
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
-      <c r="G153" s="32"/>
+      <c r="G153" s="18"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
@@ -7473,7 +8049,7 @@
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
-      <c r="G154" s="32"/>
+      <c r="G154" s="18"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
@@ -7482,7 +8058,7 @@
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
-      <c r="G155" s="32"/>
+      <c r="G155" s="18"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
@@ -7491,7 +8067,7 @@
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
-      <c r="G156" s="32"/>
+      <c r="G156" s="18"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
@@ -7500,7 +8076,7 @@
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
-      <c r="G157" s="32"/>
+      <c r="G157" s="18"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
@@ -7509,7 +8085,7 @@
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
-      <c r="G158" s="32"/>
+      <c r="G158" s="18"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
@@ -7518,7 +8094,7 @@
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
-      <c r="G159" s="32"/>
+      <c r="G159" s="18"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
@@ -7527,7 +8103,7 @@
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
-      <c r="G160" s="32"/>
+      <c r="G160" s="18"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -7536,7 +8112,7 @@
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
-      <c r="G161" s="32"/>
+      <c r="G161" s="18"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
@@ -7545,7 +8121,7 @@
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
-      <c r="G162" s="32"/>
+      <c r="G162" s="18"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
@@ -7554,7 +8130,7 @@
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
-      <c r="G163" s="32"/>
+      <c r="G163" s="18"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
@@ -7563,7 +8139,7 @@
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
-      <c r="G164" s="32"/>
+      <c r="G164" s="18"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
@@ -7572,7 +8148,7 @@
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
-      <c r="G165" s="32"/>
+      <c r="G165" s="18"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
@@ -7581,7 +8157,7 @@
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
-      <c r="G166" s="32"/>
+      <c r="G166" s="18"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
@@ -7590,7 +8166,7 @@
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
-      <c r="G167" s="32"/>
+      <c r="G167" s="18"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
@@ -7599,7 +8175,7 @@
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
-      <c r="G168" s="32"/>
+      <c r="G168" s="18"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
@@ -7608,7 +8184,7 @@
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
-      <c r="G169" s="32"/>
+      <c r="G169" s="18"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
@@ -7617,7 +8193,7 @@
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
-      <c r="G170" s="32"/>
+      <c r="G170" s="18"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
@@ -7626,7 +8202,7 @@
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
-      <c r="G171" s="32"/>
+      <c r="G171" s="18"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
@@ -7635,7 +8211,7 @@
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
-      <c r="G172" s="32"/>
+      <c r="G172" s="18"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
@@ -7644,7 +8220,7 @@
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
-      <c r="G173" s="32"/>
+      <c r="G173" s="18"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
@@ -7653,7 +8229,7 @@
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
-      <c r="G174" s="32"/>
+      <c r="G174" s="18"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
@@ -7662,7 +8238,7 @@
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
-      <c r="G175" s="32"/>
+      <c r="G175" s="18"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
@@ -7671,7 +8247,7 @@
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
-      <c r="G176" s="32"/>
+      <c r="G176" s="18"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
@@ -7680,7 +8256,7 @@
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
-      <c r="G177" s="32"/>
+      <c r="G177" s="18"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
@@ -7689,7 +8265,7 @@
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
-      <c r="G178" s="32"/>
+      <c r="G178" s="18"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="10"/>
@@ -7698,7 +8274,7 @@
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
-      <c r="G179" s="32"/>
+      <c r="G179" s="18"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
@@ -7707,7 +8283,7 @@
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
-      <c r="G180" s="32"/>
+      <c r="G180" s="18"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
@@ -7716,7 +8292,7 @@
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="32"/>
+      <c r="G181" s="18"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
@@ -7725,7 +8301,7 @@
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
-      <c r="G182" s="32"/>
+      <c r="G182" s="18"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="10"/>
@@ -7734,7 +8310,7 @@
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
-      <c r="G183" s="32"/>
+      <c r="G183" s="18"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
@@ -7743,7 +8319,7 @@
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
-      <c r="G184" s="32"/>
+      <c r="G184" s="18"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
@@ -7752,7 +8328,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
-      <c r="G185" s="32"/>
+      <c r="G185" s="18"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
@@ -7761,7 +8337,7 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
-      <c r="G186" s="32"/>
+      <c r="G186" s="18"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
@@ -7770,7 +8346,7 @@
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
-      <c r="G187" s="32"/>
+      <c r="G187" s="18"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
@@ -7779,7 +8355,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
-      <c r="G188" s="32"/>
+      <c r="G188" s="18"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
@@ -7788,7 +8364,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
-      <c r="G189" s="32"/>
+      <c r="G189" s="18"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
@@ -7797,7 +8373,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
-      <c r="G190" s="32"/>
+      <c r="G190" s="18"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
@@ -7806,7 +8382,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
-      <c r="G191" s="32"/>
+      <c r="G191" s="18"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
@@ -7815,7 +8391,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
-      <c r="G192" s="32"/>
+      <c r="G192" s="18"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
@@ -7824,7 +8400,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
-      <c r="G193" s="32"/>
+      <c r="G193" s="18"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
@@ -7833,7 +8409,7 @@
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
-      <c r="G194" s="32"/>
+      <c r="G194" s="18"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="10"/>
@@ -7842,7 +8418,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
-      <c r="G195" s="32"/>
+      <c r="G195" s="18"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
@@ -7851,7 +8427,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
-      <c r="G196" s="32"/>
+      <c r="G196" s="18"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="10"/>
@@ -7860,7 +8436,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
-      <c r="G197" s="32"/>
+      <c r="G197" s="18"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="10"/>
@@ -7869,7 +8445,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
-      <c r="G198" s="32"/>
+      <c r="G198" s="18"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="10"/>
@@ -7878,7 +8454,7 @@
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
-      <c r="G199" s="32"/>
+      <c r="G199" s="18"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="10"/>
@@ -7887,7 +8463,7 @@
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
-      <c r="G200" s="32"/>
+      <c r="G200" s="18"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
@@ -7896,7 +8472,7 @@
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
-      <c r="G201" s="32"/>
+      <c r="G201" s="18"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="10"/>
@@ -7905,7 +8481,7 @@
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
-      <c r="G202" s="32"/>
+      <c r="G202" s="18"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="10"/>
@@ -7914,7 +8490,7 @@
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
-      <c r="G203" s="32"/>
+      <c r="G203" s="18"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="10"/>
@@ -7923,7 +8499,7 @@
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
-      <c r="G204" s="32"/>
+      <c r="G204" s="18"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
@@ -7932,7 +8508,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
-      <c r="G205" s="32"/>
+      <c r="G205" s="18"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
@@ -7941,7 +8517,7 @@
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
-      <c r="G206" s="32"/>
+      <c r="G206" s="18"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
@@ -7950,7 +8526,7 @@
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
-      <c r="G207" s="32"/>
+      <c r="G207" s="18"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
@@ -7959,7 +8535,7 @@
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
-      <c r="G208" s="32"/>
+      <c r="G208" s="18"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="10"/>
@@ -7968,7 +8544,7 @@
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
-      <c r="G209" s="32"/>
+      <c r="G209" s="18"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="10"/>
@@ -7977,7 +8553,7 @@
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
-      <c r="G210" s="32"/>
+      <c r="G210" s="18"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
@@ -7986,7 +8562,7 @@
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
-      <c r="G211" s="32"/>
+      <c r="G211" s="18"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
@@ -7995,7 +8571,7 @@
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
-      <c r="G212" s="32"/>
+      <c r="G212" s="18"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
@@ -8004,7 +8580,7 @@
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
-      <c r="G213" s="32"/>
+      <c r="G213" s="18"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
@@ -8013,7 +8589,7 @@
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
-      <c r="G214" s="32"/>
+      <c r="G214" s="18"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
@@ -8022,7 +8598,7 @@
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
-      <c r="G215" s="32"/>
+      <c r="G215" s="18"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
@@ -8031,7 +8607,7 @@
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
-      <c r="G216" s="32"/>
+      <c r="G216" s="18"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="10"/>
@@ -8040,7 +8616,7 @@
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
-      <c r="G217" s="32"/>
+      <c r="G217" s="18"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
@@ -8049,7 +8625,7 @@
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
-      <c r="G218" s="32"/>
+      <c r="G218" s="18"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
@@ -8058,7 +8634,7 @@
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
-      <c r="G219" s="32"/>
+      <c r="G219" s="18"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
@@ -8067,7 +8643,7 @@
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
-      <c r="G220" s="32"/>
+      <c r="G220" s="18"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="10"/>
@@ -8076,7 +8652,7 @@
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
-      <c r="G221" s="32"/>
+      <c r="G221" s="18"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="10"/>
@@ -8085,7 +8661,7 @@
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
-      <c r="G222" s="32"/>
+      <c r="G222" s="18"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
@@ -8094,7 +8670,7 @@
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
-      <c r="G223" s="32"/>
+      <c r="G223" s="18"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="10"/>
@@ -8103,7 +8679,7 @@
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
-      <c r="G224" s="32"/>
+      <c r="G224" s="18"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
@@ -8112,7 +8688,7 @@
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
-      <c r="G225" s="32"/>
+      <c r="G225" s="18"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
@@ -8121,7 +8697,7 @@
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
-      <c r="G226" s="32"/>
+      <c r="G226" s="18"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
@@ -8130,7 +8706,7 @@
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
-      <c r="G227" s="32"/>
+      <c r="G227" s="18"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
@@ -8139,7 +8715,7 @@
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
-      <c r="G228" s="32"/>
+      <c r="G228" s="18"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
@@ -8148,7 +8724,7 @@
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
-      <c r="G229" s="32"/>
+      <c r="G229" s="18"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
@@ -8157,7 +8733,7 @@
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
-      <c r="G230" s="32"/>
+      <c r="G230" s="18"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
@@ -8166,7 +8742,7 @@
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
-      <c r="G231" s="32"/>
+      <c r="G231" s="18"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
@@ -8175,7 +8751,7 @@
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
-      <c r="G232" s="32"/>
+      <c r="G232" s="18"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="10"/>
@@ -8184,7 +8760,7 @@
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
-      <c r="G233" s="32"/>
+      <c r="G233" s="18"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="10"/>
@@ -8193,7 +8769,7 @@
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
-      <c r="G234" s="32"/>
+      <c r="G234" s="18"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="10"/>
@@ -8202,7 +8778,7 @@
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
-      <c r="G235" s="32"/>
+      <c r="G235" s="18"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="10"/>
@@ -8211,7 +8787,7 @@
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
-      <c r="G236" s="32"/>
+      <c r="G236" s="18"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="10"/>
@@ -8220,7 +8796,7 @@
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
-      <c r="G237" s="32"/>
+      <c r="G237" s="18"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
@@ -8229,7 +8805,7 @@
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
-      <c r="G238" s="32"/>
+      <c r="G238" s="18"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="10"/>
@@ -8238,7 +8814,7 @@
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
-      <c r="G239" s="32"/>
+      <c r="G239" s="18"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
@@ -8247,7 +8823,7 @@
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
-      <c r="G240" s="32"/>
+      <c r="G240" s="18"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
@@ -8256,7 +8832,7 @@
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
-      <c r="G241" s="32"/>
+      <c r="G241" s="18"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
@@ -8265,7 +8841,7 @@
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
-      <c r="G242" s="32"/>
+      <c r="G242" s="18"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
@@ -8274,7 +8850,7 @@
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
-      <c r="G243" s="32"/>
+      <c r="G243" s="18"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
@@ -8283,7 +8859,7 @@
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
-      <c r="G244" s="32"/>
+      <c r="G244" s="18"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
@@ -8292,7 +8868,7 @@
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
-      <c r="G245" s="32"/>
+      <c r="G245" s="18"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
@@ -8301,7 +8877,7 @@
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
-      <c r="G246" s="32"/>
+      <c r="G246" s="18"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
@@ -8310,7 +8886,7 @@
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
-      <c r="G247" s="32"/>
+      <c r="G247" s="18"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
@@ -8319,7 +8895,7 @@
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
-      <c r="G248" s="32"/>
+      <c r="G248" s="18"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
@@ -8328,7 +8904,7 @@
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
-      <c r="G249" s="32"/>
+      <c r="G249" s="18"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
@@ -8337,7 +8913,7 @@
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
-      <c r="G250" s="32"/>
+      <c r="G250" s="18"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
@@ -8346,7 +8922,7 @@
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
-      <c r="G251" s="32"/>
+      <c r="G251" s="18"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
@@ -8355,7 +8931,7 @@
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
-      <c r="G252" s="32"/>
+      <c r="G252" s="18"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
@@ -8364,7 +8940,7 @@
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
-      <c r="G253" s="32"/>
+      <c r="G253" s="18"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
@@ -8373,7 +8949,7 @@
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
-      <c r="G254" s="32"/>
+      <c r="G254" s="18"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
@@ -8382,7 +8958,7 @@
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
-      <c r="G255" s="32"/>
+      <c r="G255" s="18"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
@@ -8391,7 +8967,7 @@
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
-      <c r="G256" s="32"/>
+      <c r="G256" s="18"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
@@ -8400,7 +8976,7 @@
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
-      <c r="G257" s="32"/>
+      <c r="G257" s="18"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="10"/>
@@ -8409,7 +8985,7 @@
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
-      <c r="G258" s="32"/>
+      <c r="G258" s="18"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="10"/>
@@ -8418,7 +8994,7 @@
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
-      <c r="G259" s="32"/>
+      <c r="G259" s="18"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="10"/>
@@ -8427,7 +9003,7 @@
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
-      <c r="G260" s="32"/>
+      <c r="G260" s="18"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="10"/>
@@ -8436,7 +9012,7 @@
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
-      <c r="G261" s="32"/>
+      <c r="G261" s="18"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
@@ -8445,7 +9021,7 @@
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
-      <c r="G262" s="32"/>
+      <c r="G262" s="18"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
@@ -8454,7 +9030,7 @@
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
-      <c r="G263" s="32"/>
+      <c r="G263" s="18"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
@@ -8463,7 +9039,7 @@
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
-      <c r="G264" s="32"/>
+      <c r="G264" s="18"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="10"/>
@@ -8472,7 +9048,7 @@
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
-      <c r="G265" s="32"/>
+      <c r="G265" s="18"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
@@ -8481,7 +9057,7 @@
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
-      <c r="G266" s="32"/>
+      <c r="G266" s="18"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="10"/>
@@ -8490,7 +9066,7 @@
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
-      <c r="G267" s="32"/>
+      <c r="G267" s="18"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
@@ -8499,7 +9075,7 @@
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
-      <c r="G268" s="32"/>
+      <c r="G268" s="18"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
@@ -8508,7 +9084,7 @@
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
-      <c r="G269" s="32"/>
+      <c r="G269" s="18"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
@@ -8517,7 +9093,7 @@
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
-      <c r="G270" s="32"/>
+      <c r="G270" s="18"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
@@ -8526,7 +9102,7 @@
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
-      <c r="G271" s="32"/>
+      <c r="G271" s="18"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
@@ -8535,7 +9111,7 @@
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
-      <c r="G272" s="32"/>
+      <c r="G272" s="18"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
@@ -8544,7 +9120,7 @@
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
-      <c r="G273" s="32"/>
+      <c r="G273" s="18"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="10"/>
@@ -8553,7 +9129,7 @@
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
-      <c r="G274" s="32"/>
+      <c r="G274" s="18"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="10"/>
@@ -8562,7 +9138,7 @@
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
-      <c r="G275" s="32"/>
+      <c r="G275" s="18"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="10"/>
@@ -8571,7 +9147,7 @@
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
-      <c r="G276" s="32"/>
+      <c r="G276" s="18"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="10"/>
@@ -8580,7 +9156,7 @@
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
-      <c r="G277" s="32"/>
+      <c r="G277" s="18"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="10"/>
@@ -8589,7 +9165,7 @@
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
-      <c r="G278" s="32"/>
+      <c r="G278" s="18"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="10"/>
@@ -8598,7 +9174,7 @@
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
-      <c r="G279" s="32"/>
+      <c r="G279" s="18"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="10"/>
@@ -8607,7 +9183,7 @@
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
-      <c r="G280" s="32"/>
+      <c r="G280" s="18"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="10"/>
@@ -8616,7 +9192,7 @@
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
-      <c r="G281" s="32"/>
+      <c r="G281" s="18"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="10"/>
@@ -8625,7 +9201,7 @@
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
-      <c r="G282" s="32"/>
+      <c r="G282" s="18"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="10"/>
@@ -8634,7 +9210,7 @@
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
-      <c r="G283" s="32"/>
+      <c r="G283" s="18"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="10"/>
@@ -8643,7 +9219,7 @@
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
-      <c r="G284" s="32"/>
+      <c r="G284" s="18"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="10"/>
@@ -8652,7 +9228,7 @@
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
-      <c r="G285" s="32"/>
+      <c r="G285" s="18"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="10"/>
@@ -8661,7 +9237,7 @@
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
-      <c r="G286" s="32"/>
+      <c r="G286" s="18"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="10"/>
@@ -8670,7 +9246,7 @@
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
-      <c r="G287" s="32"/>
+      <c r="G287" s="18"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="10"/>
@@ -8679,7 +9255,7 @@
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
-      <c r="G288" s="32"/>
+      <c r="G288" s="18"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="10"/>
@@ -8688,7 +9264,7 @@
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
-      <c r="G289" s="32"/>
+      <c r="G289" s="18"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="10"/>
@@ -8697,7 +9273,7 @@
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
-      <c r="G290" s="32"/>
+      <c r="G290" s="18"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="10"/>
@@ -8706,7 +9282,7 @@
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
-      <c r="G291" s="32"/>
+      <c r="G291" s="18"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="10"/>
@@ -8715,7 +9291,7 @@
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
-      <c r="G292" s="32"/>
+      <c r="G292" s="18"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="10"/>
@@ -8724,7 +9300,7 @@
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
-      <c r="G293" s="32"/>
+      <c r="G293" s="18"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="10"/>
@@ -8733,7 +9309,7 @@
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
-      <c r="G294" s="32"/>
+      <c r="G294" s="18"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="10"/>
@@ -8742,7 +9318,7 @@
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
-      <c r="G295" s="32"/>
+      <c r="G295" s="18"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="10"/>
@@ -8751,7 +9327,7 @@
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
-      <c r="G296" s="32"/>
+      <c r="G296" s="18"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="10"/>
@@ -8760,7 +9336,7 @@
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
-      <c r="G297" s="32"/>
+      <c r="G297" s="18"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="10"/>
@@ -8769,7 +9345,7 @@
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
-      <c r="G298" s="32"/>
+      <c r="G298" s="18"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="10"/>
@@ -8778,7 +9354,7 @@
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
-      <c r="G299" s="32"/>
+      <c r="G299" s="18"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="10"/>
@@ -8787,7 +9363,7 @@
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
-      <c r="G300" s="32"/>
+      <c r="G300" s="18"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="10"/>
@@ -8796,7 +9372,7 @@
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
-      <c r="G301" s="32"/>
+      <c r="G301" s="18"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="10"/>
@@ -8805,7 +9381,7 @@
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
-      <c r="G302" s="32"/>
+      <c r="G302" s="18"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="10"/>
@@ -8814,7 +9390,7 @@
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
-      <c r="G303" s="32"/>
+      <c r="G303" s="18"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="10"/>
@@ -8823,7 +9399,7 @@
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
-      <c r="G304" s="32"/>
+      <c r="G304" s="18"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="10"/>
@@ -8832,7 +9408,7 @@
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
-      <c r="G305" s="32"/>
+      <c r="G305" s="18"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="10"/>
@@ -8841,7 +9417,7 @@
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
-      <c r="G306" s="32"/>
+      <c r="G306" s="18"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="10"/>
@@ -8850,7 +9426,7 @@
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
-      <c r="G307" s="32"/>
+      <c r="G307" s="18"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="10"/>
@@ -8859,7 +9435,7 @@
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
-      <c r="G308" s="32"/>
+      <c r="G308" s="18"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="10"/>
@@ -8868,7 +9444,7 @@
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
-      <c r="G309" s="32"/>
+      <c r="G309" s="18"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="10"/>
@@ -8877,7 +9453,7 @@
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
-      <c r="G310" s="32"/>
+      <c r="G310" s="18"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="10"/>
@@ -8886,7 +9462,7 @@
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
-      <c r="G311" s="32"/>
+      <c r="G311" s="18"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="10"/>
@@ -8895,7 +9471,7 @@
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
-      <c r="G312" s="32"/>
+      <c r="G312" s="18"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="10"/>
@@ -8904,7 +9480,7 @@
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
-      <c r="G313" s="32"/>
+      <c r="G313" s="18"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="10"/>
@@ -8913,7 +9489,7 @@
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
-      <c r="G314" s="32"/>
+      <c r="G314" s="18"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="10"/>
@@ -8922,7 +9498,7 @@
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
-      <c r="G315" s="32"/>
+      <c r="G315" s="18"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="10"/>
@@ -8931,7 +9507,7 @@
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
-      <c r="G316" s="32"/>
+      <c r="G316" s="18"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="10"/>
@@ -8940,7 +9516,7 @@
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
-      <c r="G317" s="32"/>
+      <c r="G317" s="18"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="10"/>
@@ -8949,7 +9525,7 @@
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
-      <c r="G318" s="32"/>
+      <c r="G318" s="18"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="10"/>
@@ -8958,7 +9534,7 @@
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
-      <c r="G319" s="32"/>
+      <c r="G319" s="18"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="10"/>
@@ -8967,7 +9543,7 @@
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
-      <c r="G320" s="32"/>
+      <c r="G320" s="18"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="10"/>
@@ -8976,7 +9552,7 @@
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
-      <c r="G321" s="32"/>
+      <c r="G321" s="18"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="10"/>
@@ -8985,7 +9561,7 @@
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
-      <c r="G322" s="32"/>
+      <c r="G322" s="18"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="10"/>
@@ -8994,7 +9570,7 @@
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
-      <c r="G323" s="32"/>
+      <c r="G323" s="18"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="10"/>
@@ -9003,7 +9579,7 @@
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
-      <c r="G324" s="32"/>
+      <c r="G324" s="18"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="10"/>
@@ -9012,7 +9588,7 @@
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
-      <c r="G325" s="32"/>
+      <c r="G325" s="18"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="10"/>
@@ -9021,7 +9597,7 @@
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
-      <c r="G326" s="32"/>
+      <c r="G326" s="18"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="10"/>
@@ -9030,7 +9606,7 @@
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
-      <c r="G327" s="32"/>
+      <c r="G327" s="18"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="10"/>
@@ -9039,7 +9615,7 @@
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
-      <c r="G328" s="32"/>
+      <c r="G328" s="18"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="10"/>
@@ -9048,7 +9624,7 @@
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
-      <c r="G329" s="32"/>
+      <c r="G329" s="18"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="10"/>
@@ -9057,7 +9633,7 @@
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
-      <c r="G330" s="32"/>
+      <c r="G330" s="18"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="10"/>
@@ -9066,7 +9642,7 @@
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
-      <c r="G331" s="32"/>
+      <c r="G331" s="18"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="10"/>
@@ -9075,7 +9651,7 @@
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
-      <c r="G332" s="32"/>
+      <c r="G332" s="18"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="10"/>
@@ -9084,7 +9660,7 @@
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
-      <c r="G333" s="32"/>
+      <c r="G333" s="18"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="10"/>
@@ -9093,7 +9669,7 @@
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
-      <c r="G334" s="32"/>
+      <c r="G334" s="18"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="10"/>
@@ -9102,7 +9678,7 @@
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
-      <c r="G335" s="32"/>
+      <c r="G335" s="18"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="10"/>
@@ -9111,7 +9687,7 @@
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
-      <c r="G336" s="32"/>
+      <c r="G336" s="18"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="10"/>
@@ -9120,7 +9696,7 @@
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
-      <c r="G337" s="32"/>
+      <c r="G337" s="18"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="10"/>
@@ -9129,7 +9705,7 @@
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
-      <c r="G338" s="32"/>
+      <c r="G338" s="18"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="10"/>
@@ -9138,7 +9714,7 @@
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
-      <c r="G339" s="32"/>
+      <c r="G339" s="18"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="10"/>
@@ -9147,7 +9723,7 @@
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
-      <c r="G340" s="32"/>
+      <c r="G340" s="18"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="10"/>
@@ -9156,7 +9732,7 @@
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
-      <c r="G341" s="32"/>
+      <c r="G341" s="18"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
@@ -9165,7 +9741,7 @@
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
-      <c r="G342" s="32"/>
+      <c r="G342" s="18"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="10"/>
@@ -9174,7 +9750,7 @@
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
-      <c r="G343" s="32"/>
+      <c r="G343" s="18"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="10"/>
@@ -9183,7 +9759,7 @@
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
-      <c r="G344" s="32"/>
+      <c r="G344" s="18"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="10"/>
@@ -9192,7 +9768,7 @@
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
-      <c r="G345" s="32"/>
+      <c r="G345" s="18"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="10"/>
@@ -9201,7 +9777,7 @@
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
-      <c r="G346" s="32"/>
+      <c r="G346" s="18"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="10"/>
@@ -9210,7 +9786,7 @@
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
-      <c r="G347" s="32"/>
+      <c r="G347" s="18"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="10"/>
@@ -9219,7 +9795,7 @@
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
-      <c r="G348" s="32"/>
+      <c r="G348" s="18"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="10"/>
@@ -9228,7 +9804,7 @@
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
-      <c r="G349" s="32"/>
+      <c r="G349" s="18"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="10"/>
@@ -9237,7 +9813,7 @@
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
-      <c r="G350" s="32"/>
+      <c r="G350" s="18"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="10"/>
@@ -9246,7 +9822,7 @@
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
-      <c r="G351" s="32"/>
+      <c r="G351" s="18"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="10"/>
@@ -9255,7 +9831,7 @@
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
-      <c r="G352" s="32"/>
+      <c r="G352" s="18"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="10"/>
@@ -9264,7 +9840,7 @@
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
-      <c r="G353" s="32"/>
+      <c r="G353" s="18"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="10"/>
@@ -9273,7 +9849,7 @@
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
-      <c r="G354" s="32"/>
+      <c r="G354" s="18"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="10"/>
@@ -9282,7 +9858,7 @@
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
-      <c r="G355" s="32"/>
+      <c r="G355" s="18"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="10"/>
@@ -9291,7 +9867,7 @@
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
-      <c r="G356" s="32"/>
+      <c r="G356" s="18"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="10"/>
@@ -9300,7 +9876,7 @@
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
-      <c r="G357" s="32"/>
+      <c r="G357" s="18"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="10"/>
@@ -9309,7 +9885,7 @@
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
-      <c r="G358" s="32"/>
+      <c r="G358" s="18"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="10"/>
@@ -9318,7 +9894,7 @@
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
-      <c r="G359" s="32"/>
+      <c r="G359" s="18"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="10"/>
@@ -9327,7 +9903,7 @@
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
-      <c r="G360" s="32"/>
+      <c r="G360" s="18"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="10"/>
@@ -9336,7 +9912,7 @@
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
-      <c r="G361" s="32"/>
+      <c r="G361" s="18"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" s="10"/>
@@ -9345,7 +9921,7 @@
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
-      <c r="G362" s="32"/>
+      <c r="G362" s="18"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="10"/>
@@ -9354,7 +9930,7 @@
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
-      <c r="G363" s="32"/>
+      <c r="G363" s="18"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="10"/>
@@ -9363,7 +9939,7 @@
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
-      <c r="G364" s="32"/>
+      <c r="G364" s="18"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="10"/>
@@ -9372,7 +9948,7 @@
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
-      <c r="G365" s="32"/>
+      <c r="G365" s="18"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="10"/>
@@ -9381,7 +9957,7 @@
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
-      <c r="G366" s="32"/>
+      <c r="G366" s="18"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="10"/>
@@ -9390,7 +9966,7 @@
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
-      <c r="G367" s="32"/>
+      <c r="G367" s="18"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="10"/>
@@ -9399,7 +9975,7 @@
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
-      <c r="G368" s="32"/>
+      <c r="G368" s="18"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="10"/>
@@ -9408,7 +9984,7 @@
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
-      <c r="G369" s="32"/>
+      <c r="G369" s="18"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="10"/>
@@ -9417,7 +9993,7 @@
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
-      <c r="G370" s="32"/>
+      <c r="G370" s="18"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="10"/>
@@ -9426,7 +10002,7 @@
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
-      <c r="G371" s="32"/>
+      <c r="G371" s="18"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="10"/>
@@ -9435,7 +10011,7 @@
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
-      <c r="G372" s="32"/>
+      <c r="G372" s="18"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="10"/>
@@ -9444,7 +10020,7 @@
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
-      <c r="G373" s="32"/>
+      <c r="G373" s="18"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="10"/>
@@ -9453,7 +10029,7 @@
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
-      <c r="G374" s="32"/>
+      <c r="G374" s="18"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="10"/>
@@ -9462,7 +10038,7 @@
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
-      <c r="G375" s="32"/>
+      <c r="G375" s="18"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="10"/>
@@ -9471,7 +10047,7 @@
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
-      <c r="G376" s="32"/>
+      <c r="G376" s="18"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="10"/>
@@ -9480,7 +10056,7 @@
       <c r="D377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
-      <c r="G377" s="32"/>
+      <c r="G377" s="18"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="10"/>
@@ -9489,7 +10065,7 @@
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
-      <c r="G378" s="32"/>
+      <c r="G378" s="18"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="10"/>
@@ -9498,7 +10074,7 @@
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
-      <c r="G379" s="32"/>
+      <c r="G379" s="18"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="10"/>
@@ -9507,7 +10083,7 @@
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
-      <c r="G380" s="32"/>
+      <c r="G380" s="18"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="10"/>
@@ -9516,7 +10092,7 @@
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
-      <c r="G381" s="32"/>
+      <c r="G381" s="18"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="10"/>
@@ -9525,7 +10101,7 @@
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
-      <c r="G382" s="32"/>
+      <c r="G382" s="18"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="10"/>
@@ -9534,7 +10110,7 @@
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
-      <c r="G383" s="32"/>
+      <c r="G383" s="18"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="10"/>
@@ -9543,7 +10119,7 @@
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
-      <c r="G384" s="32"/>
+      <c r="G384" s="18"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="10"/>
@@ -9552,7 +10128,7 @@
       <c r="D385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
-      <c r="G385" s="32"/>
+      <c r="G385" s="18"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="10"/>
@@ -9561,7 +10137,7 @@
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
-      <c r="G386" s="32"/>
+      <c r="G386" s="18"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="10"/>
@@ -9570,7 +10146,7 @@
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
-      <c r="G387" s="32"/>
+      <c r="G387" s="18"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="10"/>
@@ -9579,7 +10155,7 @@
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
-      <c r="G388" s="32"/>
+      <c r="G388" s="18"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="10"/>
@@ -9588,7 +10164,7 @@
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
-      <c r="G389" s="32"/>
+      <c r="G389" s="18"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="10"/>
@@ -9597,7 +10173,7 @@
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
-      <c r="G390" s="32"/>
+      <c r="G390" s="18"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="10"/>
@@ -9606,7 +10182,7 @@
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
-      <c r="G391" s="32"/>
+      <c r="G391" s="18"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="10"/>
@@ -9615,7 +10191,7 @@
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
-      <c r="G392" s="32"/>
+      <c r="G392" s="18"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="10"/>
@@ -9624,7 +10200,7 @@
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
-      <c r="G393" s="32"/>
+      <c r="G393" s="18"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="10"/>
@@ -9633,7 +10209,7 @@
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
-      <c r="G394" s="32"/>
+      <c r="G394" s="18"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="10"/>
@@ -9642,7 +10218,7 @@
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
-      <c r="G395" s="32"/>
+      <c r="G395" s="18"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="10"/>
@@ -9651,7 +10227,7 @@
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
-      <c r="G396" s="32"/>
+      <c r="G396" s="18"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="10"/>
@@ -9660,7 +10236,7 @@
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
-      <c r="G397" s="32"/>
+      <c r="G397" s="18"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="10"/>
@@ -9669,7 +10245,7 @@
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
-      <c r="G398" s="32"/>
+      <c r="G398" s="18"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="10"/>
@@ -9678,7 +10254,7 @@
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
-      <c r="G399" s="32"/>
+      <c r="G399" s="18"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="10"/>
@@ -9687,7 +10263,7 @@
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
-      <c r="G400" s="32"/>
+      <c r="G400" s="18"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="10"/>
@@ -9696,7 +10272,7 @@
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
-      <c r="G401" s="32"/>
+      <c r="G401" s="18"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="10"/>
@@ -9705,7 +10281,7 @@
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
-      <c r="G402" s="32"/>
+      <c r="G402" s="18"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="10"/>
@@ -9714,7 +10290,7 @@
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
-      <c r="G403" s="32"/>
+      <c r="G403" s="18"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="10"/>
@@ -9723,7 +10299,7 @@
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
-      <c r="G404" s="32"/>
+      <c r="G404" s="18"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="10"/>
@@ -9732,7 +10308,7 @@
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
-      <c r="G405" s="32"/>
+      <c r="G405" s="18"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="10"/>
@@ -9741,7 +10317,7 @@
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
-      <c r="G406" s="32"/>
+      <c r="G406" s="18"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="10"/>
@@ -9750,7 +10326,7 @@
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
-      <c r="G407" s="32"/>
+      <c r="G407" s="18"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="10"/>
@@ -9759,7 +10335,7 @@
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
-      <c r="G408" s="32"/>
+      <c r="G408" s="18"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="10"/>
@@ -9768,7 +10344,7 @@
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
-      <c r="G409" s="32"/>
+      <c r="G409" s="18"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="10"/>
@@ -9777,7 +10353,7 @@
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
-      <c r="G410" s="32"/>
+      <c r="G410" s="18"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="10"/>
@@ -9786,7 +10362,7 @@
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
-      <c r="G411" s="32"/>
+      <c r="G411" s="18"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="10"/>
@@ -9795,7 +10371,7 @@
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
-      <c r="G412" s="32"/>
+      <c r="G412" s="18"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="10"/>
@@ -9804,7 +10380,7 @@
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
-      <c r="G413" s="32"/>
+      <c r="G413" s="18"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="10"/>
@@ -9813,7 +10389,7 @@
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
-      <c r="G414" s="32"/>
+      <c r="G414" s="18"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" s="10"/>
@@ -9822,7 +10398,7 @@
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
-      <c r="G415" s="32"/>
+      <c r="G415" s="18"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" s="10"/>
@@ -9831,7 +10407,7 @@
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
-      <c r="G416" s="32"/>
+      <c r="G416" s="18"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="10"/>
@@ -9840,7 +10416,7 @@
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
-      <c r="G417" s="32"/>
+      <c r="G417" s="18"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="10"/>
@@ -9849,7 +10425,7 @@
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
-      <c r="G418" s="32"/>
+      <c r="G418" s="18"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="10"/>
@@ -9858,7 +10434,7 @@
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
-      <c r="G419" s="32"/>
+      <c r="G419" s="18"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="10"/>
@@ -9867,7 +10443,7 @@
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
-      <c r="G420" s="32"/>
+      <c r="G420" s="18"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="10"/>
@@ -9876,7 +10452,7 @@
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
-      <c r="G421" s="32"/>
+      <c r="G421" s="18"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="10"/>
@@ -9885,7 +10461,7 @@
       <c r="D422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
-      <c r="G422" s="32"/>
+      <c r="G422" s="18"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="10"/>
@@ -9894,7 +10470,7 @@
       <c r="D423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
-      <c r="G423" s="32"/>
+      <c r="G423" s="18"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="10"/>
@@ -9903,7 +10479,7 @@
       <c r="D424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
-      <c r="G424" s="32"/>
+      <c r="G424" s="18"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="10"/>
@@ -9912,7 +10488,7 @@
       <c r="D425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
-      <c r="G425" s="32"/>
+      <c r="G425" s="18"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="10"/>
@@ -9921,7 +10497,7 @@
       <c r="D426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
-      <c r="G426" s="32"/>
+      <c r="G426" s="18"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="10"/>
@@ -9930,7 +10506,7 @@
       <c r="D427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
-      <c r="G427" s="32"/>
+      <c r="G427" s="18"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="10"/>
@@ -9939,7 +10515,7 @@
       <c r="D428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
-      <c r="G428" s="32"/>
+      <c r="G428" s="18"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="10"/>
@@ -9948,7 +10524,7 @@
       <c r="D429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
-      <c r="G429" s="32"/>
+      <c r="G429" s="18"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="10"/>
@@ -9957,7 +10533,7 @@
       <c r="D430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
-      <c r="G430" s="32"/>
+      <c r="G430" s="18"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="10"/>
@@ -9966,7 +10542,7 @@
       <c r="D431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
-      <c r="G431" s="32"/>
+      <c r="G431" s="18"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="10"/>
@@ -9975,7 +10551,7 @@
       <c r="D432" s="6"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
-      <c r="G432" s="32"/>
+      <c r="G432" s="18"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="10"/>
@@ -9984,7 +10560,7 @@
       <c r="D433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
-      <c r="G433" s="32"/>
+      <c r="G433" s="18"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="10"/>
@@ -9993,7 +10569,7 @@
       <c r="D434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
-      <c r="G434" s="32"/>
+      <c r="G434" s="18"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="10"/>
@@ -10002,7 +10578,7 @@
       <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
-      <c r="G435" s="32"/>
+      <c r="G435" s="18"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="10"/>
@@ -10011,7 +10587,7 @@
       <c r="D436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
-      <c r="G436" s="32"/>
+      <c r="G436" s="18"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="10"/>
@@ -10020,7 +10596,7 @@
       <c r="D437" s="6"/>
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
-      <c r="G437" s="32"/>
+      <c r="G437" s="18"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" s="10"/>
@@ -10029,7 +10605,7 @@
       <c r="D438" s="6"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
-      <c r="G438" s="32"/>
+      <c r="G438" s="18"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="10"/>
@@ -10038,7 +10614,7 @@
       <c r="D439" s="6"/>
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
-      <c r="G439" s="32"/>
+      <c r="G439" s="18"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="10"/>
@@ -10047,7 +10623,7 @@
       <c r="D440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
-      <c r="G440" s="32"/>
+      <c r="G440" s="18"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="10"/>
@@ -10056,7 +10632,7 @@
       <c r="D441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
-      <c r="G441" s="32"/>
+      <c r="G441" s="18"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="10"/>
@@ -10065,7 +10641,7 @@
       <c r="D442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
-      <c r="G442" s="32"/>
+      <c r="G442" s="18"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="10"/>
@@ -10074,7 +10650,7 @@
       <c r="D443" s="6"/>
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
-      <c r="G443" s="32"/>
+      <c r="G443" s="18"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="10"/>
@@ -10083,7 +10659,7 @@
       <c r="D444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
-      <c r="G444" s="32"/>
+      <c r="G444" s="18"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="10"/>
@@ -10092,7 +10668,7 @@
       <c r="D445" s="6"/>
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
-      <c r="G445" s="32"/>
+      <c r="G445" s="18"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="10"/>
@@ -10101,7 +10677,7 @@
       <c r="D446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
-      <c r="G446" s="32"/>
+      <c r="G446" s="18"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="10"/>
@@ -10110,7 +10686,7 @@
       <c r="D447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
-      <c r="G447" s="32"/>
+      <c r="G447" s="18"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="10"/>
@@ -10119,7 +10695,7 @@
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
-      <c r="G448" s="32"/>
+      <c r="G448" s="18"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="10"/>
@@ -10128,7 +10704,7 @@
       <c r="D449" s="6"/>
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
-      <c r="G449" s="32"/>
+      <c r="G449" s="18"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="10"/>
@@ -10137,7 +10713,7 @@
       <c r="D450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
-      <c r="G450" s="32"/>
+      <c r="G450" s="18"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="10"/>
@@ -10146,7 +10722,7 @@
       <c r="D451" s="6"/>
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
-      <c r="G451" s="32"/>
+      <c r="G451" s="18"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="10"/>
@@ -10155,7 +10731,7 @@
       <c r="D452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
-      <c r="G452" s="32"/>
+      <c r="G452" s="18"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="10"/>
@@ -10164,7 +10740,7 @@
       <c r="D453" s="6"/>
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
-      <c r="G453" s="32"/>
+      <c r="G453" s="18"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="10"/>
@@ -10173,7 +10749,7 @@
       <c r="D454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
-      <c r="G454" s="32"/>
+      <c r="G454" s="18"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="10"/>
@@ -10182,7 +10758,7 @@
       <c r="D455" s="6"/>
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
-      <c r="G455" s="32"/>
+      <c r="G455" s="18"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="10"/>
@@ -10191,7 +10767,7 @@
       <c r="D456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
-      <c r="G456" s="32"/>
+      <c r="G456" s="18"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="10"/>
@@ -10200,7 +10776,7 @@
       <c r="D457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
-      <c r="G457" s="32"/>
+      <c r="G457" s="18"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="10"/>
@@ -10209,7 +10785,7 @@
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
-      <c r="G458" s="32"/>
+      <c r="G458" s="18"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="10"/>
@@ -10218,7 +10794,7 @@
       <c r="D459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
-      <c r="G459" s="32"/>
+      <c r="G459" s="18"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="10"/>
@@ -10227,7 +10803,7 @@
       <c r="D460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
-      <c r="G460" s="32"/>
+      <c r="G460" s="18"/>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="10"/>
@@ -10236,7 +10812,7 @@
       <c r="D461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
-      <c r="G461" s="32"/>
+      <c r="G461" s="18"/>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="10"/>
@@ -10245,7 +10821,7 @@
       <c r="D462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
-      <c r="G462" s="32"/>
+      <c r="G462" s="18"/>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="10"/>
@@ -10254,7 +10830,7 @@
       <c r="D463" s="6"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
-      <c r="G463" s="32"/>
+      <c r="G463" s="18"/>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="10"/>
@@ -10263,7 +10839,7 @@
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
-      <c r="G464" s="32"/>
+      <c r="G464" s="18"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" s="10"/>
@@ -10272,7 +10848,7 @@
       <c r="D465" s="6"/>
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
-      <c r="G465" s="32"/>
+      <c r="G465" s="18"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="10"/>
@@ -10281,7 +10857,7 @@
       <c r="D466" s="6"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
-      <c r="G466" s="32"/>
+      <c r="G466" s="18"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" s="10"/>
@@ -10290,7 +10866,7 @@
       <c r="D467" s="6"/>
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
-      <c r="G467" s="32"/>
+      <c r="G467" s="18"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" s="10"/>
@@ -10299,7 +10875,7 @@
       <c r="D468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
-      <c r="G468" s="32"/>
+      <c r="G468" s="18"/>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" s="10"/>
@@ -10308,7 +10884,7 @@
       <c r="D469" s="6"/>
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
-      <c r="G469" s="32"/>
+      <c r="G469" s="18"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" s="10"/>
@@ -10317,7 +10893,7 @@
       <c r="D470" s="6"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
-      <c r="G470" s="32"/>
+      <c r="G470" s="18"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" s="10"/>
@@ -10326,7 +10902,7 @@
       <c r="D471" s="6"/>
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
-      <c r="G471" s="32"/>
+      <c r="G471" s="18"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" s="10"/>
@@ -10335,7 +10911,7 @@
       <c r="D472" s="6"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
-      <c r="G472" s="32"/>
+      <c r="G472" s="18"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" s="10"/>
@@ -10344,7 +10920,7 @@
       <c r="D473" s="6"/>
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
-      <c r="G473" s="32"/>
+      <c r="G473" s="18"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" s="10"/>
@@ -10353,7 +10929,7 @@
       <c r="D474" s="6"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
-      <c r="G474" s="32"/>
+      <c r="G474" s="18"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" s="10"/>
@@ -10362,7 +10938,7 @@
       <c r="D475" s="6"/>
       <c r="E475" s="6"/>
       <c r="F475" s="6"/>
-      <c r="G475" s="32"/>
+      <c r="G475" s="18"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" s="10"/>
@@ -10371,7 +10947,7 @@
       <c r="D476" s="6"/>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
-      <c r="G476" s="32"/>
+      <c r="G476" s="18"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" s="10"/>
@@ -10380,7 +10956,7 @@
       <c r="D477" s="6"/>
       <c r="E477" s="6"/>
       <c r="F477" s="6"/>
-      <c r="G477" s="32"/>
+      <c r="G477" s="18"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="10"/>
@@ -10389,7 +10965,7 @@
       <c r="D478" s="6"/>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
-      <c r="G478" s="32"/>
+      <c r="G478" s="18"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" s="10"/>
@@ -10398,7 +10974,7 @@
       <c r="D479" s="6"/>
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
-      <c r="G479" s="32"/>
+      <c r="G479" s="18"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" s="10"/>
@@ -10407,7 +10983,7 @@
       <c r="D480" s="6"/>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
-      <c r="G480" s="32"/>
+      <c r="G480" s="18"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" s="10"/>
@@ -10416,7 +10992,7 @@
       <c r="D481" s="6"/>
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
-      <c r="G481" s="32"/>
+      <c r="G481" s="18"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" s="10"/>
@@ -10425,7 +11001,7 @@
       <c r="D482" s="6"/>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
-      <c r="G482" s="32"/>
+      <c r="G482" s="18"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="10"/>
@@ -10434,7 +11010,7 @@
       <c r="D483" s="6"/>
       <c r="E483" s="6"/>
       <c r="F483" s="6"/>
-      <c r="G483" s="32"/>
+      <c r="G483" s="18"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="10"/>
@@ -10443,7 +11019,7 @@
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
-      <c r="G484" s="32"/>
+      <c r="G484" s="18"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" s="10"/>
@@ -10452,7 +11028,7 @@
       <c r="D485" s="6"/>
       <c r="E485" s="6"/>
       <c r="F485" s="6"/>
-      <c r="G485" s="32"/>
+      <c r="G485" s="18"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" s="10"/>
@@ -10461,7 +11037,7 @@
       <c r="D486" s="6"/>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
-      <c r="G486" s="32"/>
+      <c r="G486" s="18"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" s="10"/>
@@ -10470,7 +11046,7 @@
       <c r="D487" s="6"/>
       <c r="E487" s="6"/>
       <c r="F487" s="6"/>
-      <c r="G487" s="32"/>
+      <c r="G487" s="18"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" s="10"/>
@@ -10479,7 +11055,7 @@
       <c r="D488" s="6"/>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
-      <c r="G488" s="32"/>
+      <c r="G488" s="18"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" s="10"/>
@@ -10488,7 +11064,7 @@
       <c r="D489" s="6"/>
       <c r="E489" s="6"/>
       <c r="F489" s="6"/>
-      <c r="G489" s="32"/>
+      <c r="G489" s="18"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" s="10"/>
@@ -10497,7 +11073,7 @@
       <c r="D490" s="6"/>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
-      <c r="G490" s="32"/>
+      <c r="G490" s="18"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" s="10"/>
@@ -10506,7 +11082,7 @@
       <c r="D491" s="6"/>
       <c r="E491" s="6"/>
       <c r="F491" s="6"/>
-      <c r="G491" s="32"/>
+      <c r="G491" s="18"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" s="10"/>
@@ -10515,7 +11091,7 @@
       <c r="D492" s="6"/>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
-      <c r="G492" s="32"/>
+      <c r="G492" s="18"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" s="10"/>
@@ -10524,7 +11100,7 @@
       <c r="D493" s="6"/>
       <c r="E493" s="6"/>
       <c r="F493" s="6"/>
-      <c r="G493" s="32"/>
+      <c r="G493" s="18"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" s="10"/>
@@ -10533,7 +11109,7 @@
       <c r="D494" s="6"/>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
-      <c r="G494" s="32"/>
+      <c r="G494" s="18"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" s="10"/>
@@ -10542,7 +11118,7 @@
       <c r="D495" s="6"/>
       <c r="E495" s="6"/>
       <c r="F495" s="6"/>
-      <c r="G495" s="32"/>
+      <c r="G495" s="18"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" s="10"/>
@@ -10551,7 +11127,7 @@
       <c r="D496" s="6"/>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
-      <c r="G496" s="32"/>
+      <c r="G496" s="18"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="10"/>
@@ -10560,7 +11136,7 @@
       <c r="D497" s="6"/>
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
-      <c r="G497" s="32"/>
+      <c r="G497" s="18"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="10"/>
@@ -10569,7 +11145,7 @@
       <c r="D498" s="6"/>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
-      <c r="G498" s="32"/>
+      <c r="G498" s="18"/>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="10"/>
@@ -10578,7 +11154,7 @@
       <c r="D499" s="6"/>
       <c r="E499" s="6"/>
       <c r="F499" s="6"/>
-      <c r="G499" s="32"/>
+      <c r="G499" s="18"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="10"/>
@@ -10587,7 +11163,7 @@
       <c r="D500" s="6"/>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
-      <c r="G500" s="32"/>
+      <c r="G500" s="18"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="10"/>
@@ -10596,7 +11172,7 @@
       <c r="D501" s="6"/>
       <c r="E501" s="6"/>
       <c r="F501" s="6"/>
-      <c r="G501" s="32"/>
+      <c r="G501" s="18"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="10"/>
@@ -10605,7 +11181,7 @@
       <c r="D502" s="6"/>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
-      <c r="G502" s="32"/>
+      <c r="G502" s="18"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="10"/>
@@ -10614,7 +11190,7 @@
       <c r="D503" s="6"/>
       <c r="E503" s="6"/>
       <c r="F503" s="6"/>
-      <c r="G503" s="32"/>
+      <c r="G503" s="18"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="10"/>
@@ -10623,7 +11199,7 @@
       <c r="D504" s="6"/>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
-      <c r="G504" s="32"/>
+      <c r="G504" s="18"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="10"/>
@@ -10632,7 +11208,7 @@
       <c r="D505" s="6"/>
       <c r="E505" s="6"/>
       <c r="F505" s="6"/>
-      <c r="G505" s="32"/>
+      <c r="G505" s="18"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="10"/>
@@ -10641,7 +11217,7 @@
       <c r="D506" s="6"/>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
-      <c r="G506" s="32"/>
+      <c r="G506" s="18"/>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="10"/>
@@ -10650,7 +11226,7 @@
       <c r="D507" s="6"/>
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
-      <c r="G507" s="32"/>
+      <c r="G507" s="18"/>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="10"/>
@@ -10659,7 +11235,7 @@
       <c r="D508" s="6"/>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
-      <c r="G508" s="32"/>
+      <c r="G508" s="18"/>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="10"/>
@@ -10668,7 +11244,7 @@
       <c r="D509" s="6"/>
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
-      <c r="G509" s="32"/>
+      <c r="G509" s="18"/>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="10"/>
@@ -10677,7 +11253,7 @@
       <c r="D510" s="6"/>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
-      <c r="G510" s="32"/>
+      <c r="G510" s="18"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="10"/>
@@ -10686,7 +11262,7 @@
       <c r="D511" s="6"/>
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
-      <c r="G511" s="32"/>
+      <c r="G511" s="18"/>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="10"/>
@@ -10695,7 +11271,7 @@
       <c r="D512" s="6"/>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
-      <c r="G512" s="32"/>
+      <c r="G512" s="18"/>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="10"/>
@@ -10704,7 +11280,7 @@
       <c r="D513" s="6"/>
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
-      <c r="G513" s="32"/>
+      <c r="G513" s="18"/>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="10"/>
@@ -10713,7 +11289,7 @@
       <c r="D514" s="6"/>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
-      <c r="G514" s="32"/>
+      <c r="G514" s="18"/>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="10"/>
@@ -10722,7 +11298,7 @@
       <c r="D515" s="6"/>
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
-      <c r="G515" s="32"/>
+      <c r="G515" s="18"/>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="10"/>
@@ -10731,7 +11307,7 @@
       <c r="D516" s="6"/>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
-      <c r="G516" s="32"/>
+      <c r="G516" s="18"/>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="10"/>
@@ -10740,7 +11316,7 @@
       <c r="D517" s="6"/>
       <c r="E517" s="6"/>
       <c r="F517" s="6"/>
-      <c r="G517" s="32"/>
+      <c r="G517" s="18"/>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="10"/>
@@ -10749,7 +11325,7 @@
       <c r="D518" s="6"/>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
-      <c r="G518" s="32"/>
+      <c r="G518" s="18"/>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="10"/>
@@ -10758,7 +11334,7 @@
       <c r="D519" s="6"/>
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
-      <c r="G519" s="32"/>
+      <c r="G519" s="18"/>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="10"/>
@@ -10767,7 +11343,7 @@
       <c r="D520" s="6"/>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
-      <c r="G520" s="32"/>
+      <c r="G520" s="18"/>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="10"/>
@@ -10776,7 +11352,7 @@
       <c r="D521" s="6"/>
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
-      <c r="G521" s="32"/>
+      <c r="G521" s="18"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="10"/>
@@ -10785,7 +11361,7 @@
       <c r="D522" s="6"/>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
-      <c r="G522" s="32"/>
+      <c r="G522" s="18"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="10"/>
@@ -10794,7 +11370,7 @@
       <c r="D523" s="6"/>
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
-      <c r="G523" s="32"/>
+      <c r="G523" s="18"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" s="10"/>
@@ -10803,7 +11379,7 @@
       <c r="D524" s="6"/>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
-      <c r="G524" s="32"/>
+      <c r="G524" s="18"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="10"/>
@@ -10812,7 +11388,7 @@
       <c r="D525" s="6"/>
       <c r="E525" s="6"/>
       <c r="F525" s="6"/>
-      <c r="G525" s="32"/>
+      <c r="G525" s="18"/>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" s="10"/>
@@ -10821,7 +11397,7 @@
       <c r="D526" s="6"/>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
-      <c r="G526" s="32"/>
+      <c r="G526" s="18"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" s="10"/>
@@ -10830,7 +11406,7 @@
       <c r="D527" s="6"/>
       <c r="E527" s="6"/>
       <c r="F527" s="6"/>
-      <c r="G527" s="32"/>
+      <c r="G527" s="18"/>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" s="10"/>
@@ -10839,7 +11415,7 @@
       <c r="D528" s="6"/>
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
-      <c r="G528" s="32"/>
+      <c r="G528" s="18"/>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" s="10"/>
@@ -10848,7 +11424,7 @@
       <c r="D529" s="6"/>
       <c r="E529" s="6"/>
       <c r="F529" s="6"/>
-      <c r="G529" s="32"/>
+      <c r="G529" s="18"/>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" s="10"/>
@@ -10857,7 +11433,7 @@
       <c r="D530" s="6"/>
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
-      <c r="G530" s="32"/>
+      <c r="G530" s="18"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" s="10"/>
@@ -10866,7 +11442,7 @@
       <c r="D531" s="6"/>
       <c r="E531" s="6"/>
       <c r="F531" s="6"/>
-      <c r="G531" s="32"/>
+      <c r="G531" s="18"/>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" s="10"/>
@@ -10875,7 +11451,7 @@
       <c r="D532" s="6"/>
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
-      <c r="G532" s="32"/>
+      <c r="G532" s="18"/>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" s="10"/>
@@ -10884,7 +11460,7 @@
       <c r="D533" s="6"/>
       <c r="E533" s="6"/>
       <c r="F533" s="6"/>
-      <c r="G533" s="32"/>
+      <c r="G533" s="18"/>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" s="10"/>
@@ -10893,7 +11469,7 @@
       <c r="D534" s="6"/>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
-      <c r="G534" s="32"/>
+      <c r="G534" s="18"/>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" s="10"/>
@@ -10902,7 +11478,7 @@
       <c r="D535" s="6"/>
       <c r="E535" s="6"/>
       <c r="F535" s="6"/>
-      <c r="G535" s="32"/>
+      <c r="G535" s="18"/>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" s="10"/>
@@ -10911,7 +11487,7 @@
       <c r="D536" s="6"/>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
-      <c r="G536" s="32"/>
+      <c r="G536" s="18"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" s="10"/>
@@ -10920,7 +11496,7 @@
       <c r="D537" s="6"/>
       <c r="E537" s="6"/>
       <c r="F537" s="6"/>
-      <c r="G537" s="32"/>
+      <c r="G537" s="18"/>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" s="10"/>
@@ -10929,7 +11505,7 @@
       <c r="D538" s="6"/>
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
-      <c r="G538" s="32"/>
+      <c r="G538" s="18"/>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" s="10"/>
@@ -10938,7 +11514,7 @@
       <c r="D539" s="6"/>
       <c r="E539" s="6"/>
       <c r="F539" s="6"/>
-      <c r="G539" s="32"/>
+      <c r="G539" s="18"/>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" s="10"/>
@@ -10947,7 +11523,7 @@
       <c r="D540" s="6"/>
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
-      <c r="G540" s="32"/>
+      <c r="G540" s="18"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" s="10"/>
@@ -10956,7 +11532,7 @@
       <c r="D541" s="6"/>
       <c r="E541" s="6"/>
       <c r="F541" s="6"/>
-      <c r="G541" s="32"/>
+      <c r="G541" s="18"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" s="10"/>
@@ -10965,7 +11541,7 @@
       <c r="D542" s="6"/>
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
-      <c r="G542" s="32"/>
+      <c r="G542" s="18"/>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" s="10"/>
@@ -10974,7 +11550,7 @@
       <c r="D543" s="6"/>
       <c r="E543" s="6"/>
       <c r="F543" s="6"/>
-      <c r="G543" s="32"/>
+      <c r="G543" s="18"/>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" s="10"/>
@@ -10983,7 +11559,7 @@
       <c r="D544" s="6"/>
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
-      <c r="G544" s="32"/>
+      <c r="G544" s="18"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="10"/>
@@ -10992,7 +11568,7 @@
       <c r="D545" s="6"/>
       <c r="E545" s="6"/>
       <c r="F545" s="6"/>
-      <c r="G545" s="32"/>
+      <c r="G545" s="18"/>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="10"/>
@@ -11001,7 +11577,7 @@
       <c r="D546" s="6"/>
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
-      <c r="G546" s="32"/>
+      <c r="G546" s="18"/>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="10"/>
@@ -11010,7 +11586,7 @@
       <c r="D547" s="6"/>
       <c r="E547" s="6"/>
       <c r="F547" s="6"/>
-      <c r="G547" s="32"/>
+      <c r="G547" s="18"/>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="10"/>
@@ -11019,7 +11595,7 @@
       <c r="D548" s="6"/>
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
-      <c r="G548" s="32"/>
+      <c r="G548" s="18"/>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="10"/>
@@ -11028,7 +11604,7 @@
       <c r="D549" s="6"/>
       <c r="E549" s="6"/>
       <c r="F549" s="6"/>
-      <c r="G549" s="32"/>
+      <c r="G549" s="18"/>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="10"/>
@@ -11037,7 +11613,7 @@
       <c r="D550" s="6"/>
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
-      <c r="G550" s="32"/>
+      <c r="G550" s="18"/>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="10"/>
@@ -11046,7 +11622,7 @@
       <c r="D551" s="6"/>
       <c r="E551" s="6"/>
       <c r="F551" s="6"/>
-      <c r="G551" s="32"/>
+      <c r="G551" s="18"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="10"/>
@@ -11055,7 +11631,7 @@
       <c r="D552" s="6"/>
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
-      <c r="G552" s="32"/>
+      <c r="G552" s="18"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="10"/>
@@ -11064,7 +11640,7 @@
       <c r="D553" s="6"/>
       <c r="E553" s="6"/>
       <c r="F553" s="6"/>
-      <c r="G553" s="32"/>
+      <c r="G553" s="18"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="10"/>
@@ -11073,7 +11649,7 @@
       <c r="D554" s="6"/>
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
-      <c r="G554" s="32"/>
+      <c r="G554" s="18"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="10"/>
@@ -11082,7 +11658,7 @@
       <c r="D555" s="6"/>
       <c r="E555" s="6"/>
       <c r="F555" s="6"/>
-      <c r="G555" s="32"/>
+      <c r="G555" s="18"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="10"/>
@@ -11091,7 +11667,7 @@
       <c r="D556" s="6"/>
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
-      <c r="G556" s="32"/>
+      <c r="G556" s="18"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="10"/>
@@ -11100,7 +11676,7 @@
       <c r="D557" s="6"/>
       <c r="E557" s="6"/>
       <c r="F557" s="6"/>
-      <c r="G557" s="32"/>
+      <c r="G557" s="18"/>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="10"/>
@@ -11109,7 +11685,7 @@
       <c r="D558" s="6"/>
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
-      <c r="G558" s="32"/>
+      <c r="G558" s="18"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="10"/>
@@ -11118,7 +11694,7 @@
       <c r="D559" s="6"/>
       <c r="E559" s="6"/>
       <c r="F559" s="6"/>
-      <c r="G559" s="32"/>
+      <c r="G559" s="18"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="10"/>
@@ -11127,7 +11703,7 @@
       <c r="D560" s="6"/>
       <c r="E560" s="6"/>
       <c r="F560" s="6"/>
-      <c r="G560" s="32"/>
+      <c r="G560" s="18"/>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" s="10"/>
@@ -11136,7 +11712,7 @@
       <c r="D561" s="6"/>
       <c r="E561" s="6"/>
       <c r="F561" s="6"/>
-      <c r="G561" s="32"/>
+      <c r="G561" s="18"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" s="10"/>
@@ -11145,7 +11721,7 @@
       <c r="D562" s="6"/>
       <c r="E562" s="6"/>
       <c r="F562" s="6"/>
-      <c r="G562" s="32"/>
+      <c r="G562" s="18"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" s="10"/>
@@ -11154,7 +11730,7 @@
       <c r="D563" s="6"/>
       <c r="E563" s="6"/>
       <c r="F563" s="6"/>
-      <c r="G563" s="32"/>
+      <c r="G563" s="18"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" s="10"/>
@@ -11163,7 +11739,7 @@
       <c r="D564" s="6"/>
       <c r="E564" s="6"/>
       <c r="F564" s="6"/>
-      <c r="G564" s="32"/>
+      <c r="G564" s="18"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" s="10"/>
@@ -11172,7 +11748,7 @@
       <c r="D565" s="6"/>
       <c r="E565" s="6"/>
       <c r="F565" s="6"/>
-      <c r="G565" s="32"/>
+      <c r="G565" s="18"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" s="10"/>
@@ -11181,7 +11757,7 @@
       <c r="D566" s="6"/>
       <c r="E566" s="6"/>
       <c r="F566" s="6"/>
-      <c r="G566" s="32"/>
+      <c r="G566" s="18"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" s="10"/>
@@ -11190,7 +11766,7 @@
       <c r="D567" s="6"/>
       <c r="E567" s="6"/>
       <c r="F567" s="6"/>
-      <c r="G567" s="32"/>
+      <c r="G567" s="18"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" s="10"/>
@@ -11199,7 +11775,7 @@
       <c r="D568" s="6"/>
       <c r="E568" s="6"/>
       <c r="F568" s="6"/>
-      <c r="G568" s="32"/>
+      <c r="G568" s="18"/>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" s="10"/>
@@ -11208,7 +11784,7 @@
       <c r="D569" s="6"/>
       <c r="E569" s="6"/>
       <c r="F569" s="6"/>
-      <c r="G569" s="32"/>
+      <c r="G569" s="18"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" s="10"/>
@@ -11217,7 +11793,7 @@
       <c r="D570" s="6"/>
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
-      <c r="G570" s="32"/>
+      <c r="G570" s="18"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" s="10"/>
@@ -11226,7 +11802,7 @@
       <c r="D571" s="6"/>
       <c r="E571" s="6"/>
       <c r="F571" s="6"/>
-      <c r="G571" s="32"/>
+      <c r="G571" s="18"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" s="10"/>
@@ -11235,7 +11811,7 @@
       <c r="D572" s="6"/>
       <c r="E572" s="6"/>
       <c r="F572" s="6"/>
-      <c r="G572" s="32"/>
+      <c r="G572" s="18"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" s="10"/>
@@ -11244,7 +11820,7 @@
       <c r="D573" s="6"/>
       <c r="E573" s="6"/>
       <c r="F573" s="6"/>
-      <c r="G573" s="32"/>
+      <c r="G573" s="18"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" s="10"/>
@@ -11253,7 +11829,7 @@
       <c r="D574" s="6"/>
       <c r="E574" s="6"/>
       <c r="F574" s="6"/>
-      <c r="G574" s="32"/>
+      <c r="G574" s="18"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" s="10"/>
@@ -11262,7 +11838,7 @@
       <c r="D575" s="6"/>
       <c r="E575" s="6"/>
       <c r="F575" s="6"/>
-      <c r="G575" s="32"/>
+      <c r="G575" s="18"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" s="10"/>
@@ -11271,7 +11847,7 @@
       <c r="D576" s="6"/>
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
-      <c r="G576" s="32"/>
+      <c r="G576" s="18"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" s="10"/>
@@ -11280,7 +11856,7 @@
       <c r="D577" s="6"/>
       <c r="E577" s="6"/>
       <c r="F577" s="6"/>
-      <c r="G577" s="32"/>
+      <c r="G577" s="18"/>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" s="10"/>
@@ -11289,7 +11865,7 @@
       <c r="D578" s="6"/>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
-      <c r="G578" s="32"/>
+      <c r="G578" s="18"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" s="10"/>
@@ -11298,7 +11874,7 @@
       <c r="D579" s="6"/>
       <c r="E579" s="6"/>
       <c r="F579" s="6"/>
-      <c r="G579" s="32"/>
+      <c r="G579" s="18"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" s="10"/>
@@ -11307,7 +11883,7 @@
       <c r="D580" s="6"/>
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
-      <c r="G580" s="32"/>
+      <c r="G580" s="18"/>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" s="10"/>
@@ -11316,7 +11892,7 @@
       <c r="D581" s="6"/>
       <c r="E581" s="6"/>
       <c r="F581" s="6"/>
-      <c r="G581" s="32"/>
+      <c r="G581" s="18"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" s="10"/>
@@ -11325,7 +11901,7 @@
       <c r="D582" s="6"/>
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
-      <c r="G582" s="32"/>
+      <c r="G582" s="18"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" s="10"/>
@@ -11334,7 +11910,7 @@
       <c r="D583" s="6"/>
       <c r="E583" s="6"/>
       <c r="F583" s="6"/>
-      <c r="G583" s="32"/>
+      <c r="G583" s="18"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" s="10"/>
@@ -11343,7 +11919,7 @@
       <c r="D584" s="6"/>
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
-      <c r="G584" s="32"/>
+      <c r="G584" s="18"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" s="10"/>
@@ -11352,7 +11928,7 @@
       <c r="D585" s="6"/>
       <c r="E585" s="6"/>
       <c r="F585" s="6"/>
-      <c r="G585" s="32"/>
+      <c r="G585" s="18"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" s="10"/>
@@ -11361,7 +11937,7 @@
       <c r="D586" s="6"/>
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
-      <c r="G586" s="32"/>
+      <c r="G586" s="18"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" s="10"/>
@@ -11370,7 +11946,7 @@
       <c r="D587" s="6"/>
       <c r="E587" s="6"/>
       <c r="F587" s="6"/>
-      <c r="G587" s="32"/>
+      <c r="G587" s="18"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" s="10"/>
@@ -11379,7 +11955,7 @@
       <c r="D588" s="6"/>
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
-      <c r="G588" s="32"/>
+      <c r="G588" s="18"/>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" s="10"/>
@@ -11388,7 +11964,7 @@
       <c r="D589" s="6"/>
       <c r="E589" s="6"/>
       <c r="F589" s="6"/>
-      <c r="G589" s="32"/>
+      <c r="G589" s="18"/>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" s="10"/>
@@ -11397,7 +11973,7 @@
       <c r="D590" s="6"/>
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
-      <c r="G590" s="32"/>
+      <c r="G590" s="18"/>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" s="10"/>
@@ -11406,7 +11982,7 @@
       <c r="D591" s="6"/>
       <c r="E591" s="6"/>
       <c r="F591" s="6"/>
-      <c r="G591" s="32"/>
+      <c r="G591" s="18"/>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" s="10"/>
@@ -11415,7 +11991,7 @@
       <c r="D592" s="6"/>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
-      <c r="G592" s="32"/>
+      <c r="G592" s="18"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" s="10"/>
@@ -11424,7 +12000,7 @@
       <c r="D593" s="6"/>
       <c r="E593" s="6"/>
       <c r="F593" s="6"/>
-      <c r="G593" s="32"/>
+      <c r="G593" s="18"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" s="10"/>
@@ -11433,7 +12009,7 @@
       <c r="D594" s="6"/>
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
-      <c r="G594" s="32"/>
+      <c r="G594" s="18"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" s="10"/>
@@ -11442,7 +12018,7 @@
       <c r="D595" s="6"/>
       <c r="E595" s="6"/>
       <c r="F595" s="6"/>
-      <c r="G595" s="32"/>
+      <c r="G595" s="18"/>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" s="10"/>
@@ -11451,7 +12027,7 @@
       <c r="D596" s="6"/>
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
-      <c r="G596" s="32"/>
+      <c r="G596" s="18"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" s="10"/>
@@ -11460,7 +12036,7 @@
       <c r="D597" s="6"/>
       <c r="E597" s="6"/>
       <c r="F597" s="6"/>
-      <c r="G597" s="32"/>
+      <c r="G597" s="18"/>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" s="10"/>
@@ -11469,7 +12045,7 @@
       <c r="D598" s="6"/>
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
-      <c r="G598" s="32"/>
+      <c r="G598" s="18"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" s="10"/>
@@ -11478,7 +12054,7 @@
       <c r="D599" s="6"/>
       <c r="E599" s="6"/>
       <c r="F599" s="6"/>
-      <c r="G599" s="32"/>
+      <c r="G599" s="18"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" s="10"/>
@@ -11487,7 +12063,7 @@
       <c r="D600" s="6"/>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
-      <c r="G600" s="32"/>
+      <c r="G600" s="18"/>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" s="10"/>
@@ -11496,7 +12072,7 @@
       <c r="D601" s="6"/>
       <c r="E601" s="6"/>
       <c r="F601" s="6"/>
-      <c r="G601" s="32"/>
+      <c r="G601" s="18"/>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" s="10"/>
@@ -11505,7 +12081,7 @@
       <c r="D602" s="6"/>
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
-      <c r="G602" s="32"/>
+      <c r="G602" s="18"/>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" s="10"/>
@@ -11514,7 +12090,7 @@
       <c r="D603" s="6"/>
       <c r="E603" s="6"/>
       <c r="F603" s="6"/>
-      <c r="G603" s="32"/>
+      <c r="G603" s="18"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" s="10"/>
@@ -11523,7 +12099,7 @@
       <c r="D604" s="6"/>
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
-      <c r="G604" s="32"/>
+      <c r="G604" s="18"/>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" s="10"/>
@@ -11532,7 +12108,7 @@
       <c r="D605" s="6"/>
       <c r="E605" s="6"/>
       <c r="F605" s="6"/>
-      <c r="G605" s="32"/>
+      <c r="G605" s="18"/>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" s="10"/>
@@ -11541,7 +12117,7 @@
       <c r="D606" s="6"/>
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
-      <c r="G606" s="32"/>
+      <c r="G606" s="18"/>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" s="10"/>
@@ -11550,7 +12126,7 @@
       <c r="D607" s="6"/>
       <c r="E607" s="6"/>
       <c r="F607" s="6"/>
-      <c r="G607" s="32"/>
+      <c r="G607" s="18"/>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" s="10"/>
@@ -11559,7 +12135,7 @@
       <c r="D608" s="6"/>
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
-      <c r="G608" s="32"/>
+      <c r="G608" s="18"/>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" s="10"/>
@@ -11568,7 +12144,7 @@
       <c r="D609" s="6"/>
       <c r="E609" s="6"/>
       <c r="F609" s="6"/>
-      <c r="G609" s="32"/>
+      <c r="G609" s="18"/>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" s="10"/>
@@ -11577,7 +12153,7 @@
       <c r="D610" s="6"/>
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
-      <c r="G610" s="32"/>
+      <c r="G610" s="18"/>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="10"/>
@@ -11586,7 +12162,7 @@
       <c r="D611" s="6"/>
       <c r="E611" s="6"/>
       <c r="F611" s="6"/>
-      <c r="G611" s="32"/>
+      <c r="G611" s="18"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="10"/>
@@ -11595,7 +12171,7 @@
       <c r="D612" s="6"/>
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
-      <c r="G612" s="32"/>
+      <c r="G612" s="18"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" s="10"/>
@@ -11604,7 +12180,7 @@
       <c r="D613" s="6"/>
       <c r="E613" s="6"/>
       <c r="F613" s="6"/>
-      <c r="G613" s="32"/>
+      <c r="G613" s="18"/>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="10"/>
@@ -11613,7 +12189,7 @@
       <c r="D614" s="6"/>
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
-      <c r="G614" s="32"/>
+      <c r="G614" s="18"/>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" s="10"/>
@@ -11622,7 +12198,7 @@
       <c r="D615" s="6"/>
       <c r="E615" s="6"/>
       <c r="F615" s="6"/>
-      <c r="G615" s="32"/>
+      <c r="G615" s="18"/>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" s="10"/>
@@ -11631,7 +12207,7 @@
       <c r="D616" s="6"/>
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
-      <c r="G616" s="32"/>
+      <c r="G616" s="18"/>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" s="10"/>
@@ -11640,7 +12216,7 @@
       <c r="D617" s="6"/>
       <c r="E617" s="6"/>
       <c r="F617" s="6"/>
-      <c r="G617" s="32"/>
+      <c r="G617" s="18"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" s="10"/>
@@ -11649,7 +12225,7 @@
       <c r="D618" s="6"/>
       <c r="E618" s="6"/>
       <c r="F618" s="6"/>
-      <c r="G618" s="32"/>
+      <c r="G618" s="18"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" s="10"/>
@@ -11658,7 +12234,7 @@
       <c r="D619" s="6"/>
       <c r="E619" s="6"/>
       <c r="F619" s="6"/>
-      <c r="G619" s="32"/>
+      <c r="G619" s="18"/>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" s="10"/>
@@ -11667,7 +12243,7 @@
       <c r="D620" s="6"/>
       <c r="E620" s="6"/>
       <c r="F620" s="6"/>
-      <c r="G620" s="32"/>
+      <c r="G620" s="18"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" s="10"/>
@@ -11676,7 +12252,7 @@
       <c r="D621" s="6"/>
       <c r="E621" s="6"/>
       <c r="F621" s="6"/>
-      <c r="G621" s="32"/>
+      <c r="G621" s="18"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" s="10"/>
@@ -11685,7 +12261,7 @@
       <c r="D622" s="6"/>
       <c r="E622" s="6"/>
       <c r="F622" s="6"/>
-      <c r="G622" s="32"/>
+      <c r="G622" s="18"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" s="10"/>
@@ -11694,7 +12270,7 @@
       <c r="D623" s="6"/>
       <c r="E623" s="6"/>
       <c r="F623" s="6"/>
-      <c r="G623" s="32"/>
+      <c r="G623" s="18"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" s="10"/>
@@ -11703,7 +12279,7 @@
       <c r="D624" s="6"/>
       <c r="E624" s="6"/>
       <c r="F624" s="6"/>
-      <c r="G624" s="32"/>
+      <c r="G624" s="18"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" s="10"/>
@@ -11712,7 +12288,7 @@
       <c r="D625" s="6"/>
       <c r="E625" s="6"/>
       <c r="F625" s="6"/>
-      <c r="G625" s="32"/>
+      <c r="G625" s="18"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" s="10"/>
@@ -11721,7 +12297,7 @@
       <c r="D626" s="6"/>
       <c r="E626" s="6"/>
       <c r="F626" s="6"/>
-      <c r="G626" s="32"/>
+      <c r="G626" s="18"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" s="10"/>
@@ -11730,7 +12306,7 @@
       <c r="D627" s="6"/>
       <c r="E627" s="6"/>
       <c r="F627" s="6"/>
-      <c r="G627" s="32"/>
+      <c r="G627" s="18"/>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" s="10"/>
@@ -11739,7 +12315,7 @@
       <c r="D628" s="6"/>
       <c r="E628" s="6"/>
       <c r="F628" s="6"/>
-      <c r="G628" s="32"/>
+      <c r="G628" s="18"/>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" s="10"/>
@@ -11748,7 +12324,7 @@
       <c r="D629" s="6"/>
       <c r="E629" s="6"/>
       <c r="F629" s="6"/>
-      <c r="G629" s="32"/>
+      <c r="G629" s="18"/>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" s="10"/>
@@ -11757,7 +12333,7 @@
       <c r="D630" s="6"/>
       <c r="E630" s="6"/>
       <c r="F630" s="6"/>
-      <c r="G630" s="32"/>
+      <c r="G630" s="18"/>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" s="10"/>
@@ -11766,7 +12342,7 @@
       <c r="D631" s="6"/>
       <c r="E631" s="6"/>
       <c r="F631" s="6"/>
-      <c r="G631" s="32"/>
+      <c r="G631" s="18"/>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" s="10"/>
@@ -11775,7 +12351,7 @@
       <c r="D632" s="6"/>
       <c r="E632" s="6"/>
       <c r="F632" s="6"/>
-      <c r="G632" s="32"/>
+      <c r="G632" s="18"/>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" s="10"/>
@@ -11784,7 +12360,7 @@
       <c r="D633" s="6"/>
       <c r="E633" s="6"/>
       <c r="F633" s="6"/>
-      <c r="G633" s="32"/>
+      <c r="G633" s="18"/>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" s="10"/>
@@ -11793,7 +12369,7 @@
       <c r="D634" s="6"/>
       <c r="E634" s="6"/>
       <c r="F634" s="6"/>
-      <c r="G634" s="32"/>
+      <c r="G634" s="18"/>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" s="10"/>
@@ -11802,7 +12378,7 @@
       <c r="D635" s="6"/>
       <c r="E635" s="6"/>
       <c r="F635" s="6"/>
-      <c r="G635" s="32"/>
+      <c r="G635" s="18"/>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" s="10"/>
@@ -11811,7 +12387,7 @@
       <c r="D636" s="6"/>
       <c r="E636" s="6"/>
       <c r="F636" s="6"/>
-      <c r="G636" s="32"/>
+      <c r="G636" s="18"/>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" s="10"/>
@@ -11820,7 +12396,7 @@
       <c r="D637" s="6"/>
       <c r="E637" s="6"/>
       <c r="F637" s="6"/>
-      <c r="G637" s="32"/>
+      <c r="G637" s="18"/>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" s="10"/>
@@ -11829,7 +12405,7 @@
       <c r="D638" s="6"/>
       <c r="E638" s="6"/>
       <c r="F638" s="6"/>
-      <c r="G638" s="32"/>
+      <c r="G638" s="18"/>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" s="10"/>
@@ -11838,7 +12414,7 @@
       <c r="D639" s="6"/>
       <c r="E639" s="6"/>
       <c r="F639" s="6"/>
-      <c r="G639" s="32"/>
+      <c r="G639" s="18"/>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" s="10"/>
@@ -11847,7 +12423,7 @@
       <c r="D640" s="6"/>
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
-      <c r="G640" s="32"/>
+      <c r="G640" s="18"/>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" s="10"/>
@@ -11856,7 +12432,7 @@
       <c r="D641" s="6"/>
       <c r="E641" s="6"/>
       <c r="F641" s="6"/>
-      <c r="G641" s="32"/>
+      <c r="G641" s="18"/>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" s="10"/>
@@ -11865,7 +12441,7 @@
       <c r="D642" s="6"/>
       <c r="E642" s="6"/>
       <c r="F642" s="6"/>
-      <c r="G642" s="32"/>
+      <c r="G642" s="18"/>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" s="10"/>
@@ -11874,7 +12450,7 @@
       <c r="D643" s="6"/>
       <c r="E643" s="6"/>
       <c r="F643" s="6"/>
-      <c r="G643" s="32"/>
+      <c r="G643" s="18"/>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" s="10"/>
@@ -11883,7 +12459,7 @@
       <c r="D644" s="6"/>
       <c r="E644" s="6"/>
       <c r="F644" s="6"/>
-      <c r="G644" s="32"/>
+      <c r="G644" s="18"/>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" s="10"/>
@@ -11892,7 +12468,7 @@
       <c r="D645" s="6"/>
       <c r="E645" s="6"/>
       <c r="F645" s="6"/>
-      <c r="G645" s="32"/>
+      <c r="G645" s="18"/>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" s="10"/>
@@ -11901,7 +12477,7 @@
       <c r="D646" s="6"/>
       <c r="E646" s="6"/>
       <c r="F646" s="6"/>
-      <c r="G646" s="32"/>
+      <c r="G646" s="18"/>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" s="10"/>
@@ -11910,7 +12486,7 @@
       <c r="D647" s="6"/>
       <c r="E647" s="6"/>
       <c r="F647" s="6"/>
-      <c r="G647" s="32"/>
+      <c r="G647" s="18"/>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" s="10"/>
@@ -11919,7 +12495,7 @@
       <c r="D648" s="6"/>
       <c r="E648" s="6"/>
       <c r="F648" s="6"/>
-      <c r="G648" s="32"/>
+      <c r="G648" s="18"/>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" s="10"/>
@@ -11928,7 +12504,7 @@
       <c r="D649" s="6"/>
       <c r="E649" s="6"/>
       <c r="F649" s="6"/>
-      <c r="G649" s="32"/>
+      <c r="G649" s="18"/>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" s="10"/>
@@ -11937,7 +12513,7 @@
       <c r="D650" s="6"/>
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
-      <c r="G650" s="32"/>
+      <c r="G650" s="18"/>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" s="10"/>
@@ -11946,7 +12522,7 @@
       <c r="D651" s="6"/>
       <c r="E651" s="6"/>
       <c r="F651" s="6"/>
-      <c r="G651" s="32"/>
+      <c r="G651" s="18"/>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" s="10"/>
@@ -11955,7 +12531,7 @@
       <c r="D652" s="6"/>
       <c r="E652" s="6"/>
       <c r="F652" s="6"/>
-      <c r="G652" s="32"/>
+      <c r="G652" s="18"/>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" s="10"/>
@@ -11964,7 +12540,7 @@
       <c r="D653" s="6"/>
       <c r="E653" s="6"/>
       <c r="F653" s="6"/>
-      <c r="G653" s="32"/>
+      <c r="G653" s="18"/>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" s="10"/>
@@ -11973,7 +12549,7 @@
       <c r="D654" s="6"/>
       <c r="E654" s="6"/>
       <c r="F654" s="6"/>
-      <c r="G654" s="32"/>
+      <c r="G654" s="18"/>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" s="10"/>
@@ -11982,7 +12558,7 @@
       <c r="D655" s="6"/>
       <c r="E655" s="6"/>
       <c r="F655" s="6"/>
-      <c r="G655" s="32"/>
+      <c r="G655" s="18"/>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" s="10"/>
@@ -11991,7 +12567,7 @@
       <c r="D656" s="6"/>
       <c r="E656" s="6"/>
       <c r="F656" s="6"/>
-      <c r="G656" s="32"/>
+      <c r="G656" s="18"/>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" s="10"/>
@@ -12000,7 +12576,7 @@
       <c r="D657" s="6"/>
       <c r="E657" s="6"/>
       <c r="F657" s="6"/>
-      <c r="G657" s="32"/>
+      <c r="G657" s="18"/>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" s="10"/>
@@ -12009,7 +12585,7 @@
       <c r="D658" s="6"/>
       <c r="E658" s="6"/>
       <c r="F658" s="6"/>
-      <c r="G658" s="32"/>
+      <c r="G658" s="18"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" s="10"/>
@@ -12018,7 +12594,7 @@
       <c r="D659" s="6"/>
       <c r="E659" s="6"/>
       <c r="F659" s="6"/>
-      <c r="G659" s="32"/>
+      <c r="G659" s="18"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" s="10"/>
@@ -12027,7 +12603,7 @@
       <c r="D660" s="6"/>
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
-      <c r="G660" s="32"/>
+      <c r="G660" s="18"/>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" s="10"/>
@@ -12036,7 +12612,7 @@
       <c r="D661" s="6"/>
       <c r="E661" s="6"/>
       <c r="F661" s="6"/>
-      <c r="G661" s="32"/>
+      <c r="G661" s="18"/>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" s="10"/>
@@ -12045,7 +12621,7 @@
       <c r="D662" s="6"/>
       <c r="E662" s="6"/>
       <c r="F662" s="6"/>
-      <c r="G662" s="32"/>
+      <c r="G662" s="18"/>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" s="10"/>
@@ -12054,7 +12630,7 @@
       <c r="D663" s="6"/>
       <c r="E663" s="6"/>
       <c r="F663" s="6"/>
-      <c r="G663" s="32"/>
+      <c r="G663" s="18"/>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" s="10"/>
@@ -12063,7 +12639,7 @@
       <c r="D664" s="6"/>
       <c r="E664" s="6"/>
       <c r="F664" s="6"/>
-      <c r="G664" s="32"/>
+      <c r="G664" s="18"/>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" s="10"/>
@@ -12072,7 +12648,7 @@
       <c r="D665" s="6"/>
       <c r="E665" s="6"/>
       <c r="F665" s="6"/>
-      <c r="G665" s="32"/>
+      <c r="G665" s="18"/>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" s="10"/>
@@ -12081,7 +12657,7 @@
       <c r="D666" s="6"/>
       <c r="E666" s="6"/>
       <c r="F666" s="6"/>
-      <c r="G666" s="32"/>
+      <c r="G666" s="18"/>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" s="10"/>
@@ -12090,7 +12666,7 @@
       <c r="D667" s="6"/>
       <c r="E667" s="6"/>
       <c r="F667" s="6"/>
-      <c r="G667" s="32"/>
+      <c r="G667" s="18"/>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" s="10"/>
@@ -12099,7 +12675,7 @@
       <c r="D668" s="6"/>
       <c r="E668" s="6"/>
       <c r="F668" s="6"/>
-      <c r="G668" s="32"/>
+      <c r="G668" s="18"/>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" s="10"/>
@@ -12108,7 +12684,7 @@
       <c r="D669" s="6"/>
       <c r="E669" s="6"/>
       <c r="F669" s="6"/>
-      <c r="G669" s="32"/>
+      <c r="G669" s="18"/>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="10"/>
@@ -12117,7 +12693,7 @@
       <c r="D670" s="6"/>
       <c r="E670" s="6"/>
       <c r="F670" s="6"/>
-      <c r="G670" s="32"/>
+      <c r="G670" s="18"/>
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" s="10"/>
@@ -12126,7 +12702,7 @@
       <c r="D671" s="6"/>
       <c r="E671" s="6"/>
       <c r="F671" s="6"/>
-      <c r="G671" s="32"/>
+      <c r="G671" s="18"/>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" s="10"/>
@@ -12135,7 +12711,7 @@
       <c r="D672" s="6"/>
       <c r="E672" s="6"/>
       <c r="F672" s="6"/>
-      <c r="G672" s="32"/>
+      <c r="G672" s="18"/>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="10"/>
@@ -12144,7 +12720,7 @@
       <c r="D673" s="6"/>
       <c r="E673" s="6"/>
       <c r="F673" s="6"/>
-      <c r="G673" s="32"/>
+      <c r="G673" s="18"/>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="10"/>
@@ -12153,7 +12729,7 @@
       <c r="D674" s="6"/>
       <c r="E674" s="6"/>
       <c r="F674" s="6"/>
-      <c r="G674" s="32"/>
+      <c r="G674" s="18"/>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="10"/>
@@ -12162,7 +12738,7 @@
       <c r="D675" s="6"/>
       <c r="E675" s="6"/>
       <c r="F675" s="6"/>
-      <c r="G675" s="32"/>
+      <c r="G675" s="18"/>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="10"/>
@@ -12171,7 +12747,7 @@
       <c r="D676" s="6"/>
       <c r="E676" s="6"/>
       <c r="F676" s="6"/>
-      <c r="G676" s="32"/>
+      <c r="G676" s="18"/>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="10"/>
@@ -12180,7 +12756,7 @@
       <c r="D677" s="6"/>
       <c r="E677" s="6"/>
       <c r="F677" s="6"/>
-      <c r="G677" s="32"/>
+      <c r="G677" s="18"/>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="10"/>
@@ -12189,7 +12765,7 @@
       <c r="D678" s="6"/>
       <c r="E678" s="6"/>
       <c r="F678" s="6"/>
-      <c r="G678" s="32"/>
+      <c r="G678" s="18"/>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="10"/>
@@ -12198,7 +12774,7 @@
       <c r="D679" s="6"/>
       <c r="E679" s="6"/>
       <c r="F679" s="6"/>
-      <c r="G679" s="32"/>
+      <c r="G679" s="18"/>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="10"/>
@@ -12207,7 +12783,7 @@
       <c r="D680" s="6"/>
       <c r="E680" s="6"/>
       <c r="F680" s="6"/>
-      <c r="G680" s="32"/>
+      <c r="G680" s="18"/>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" s="10"/>
@@ -12216,7 +12792,7 @@
       <c r="D681" s="6"/>
       <c r="E681" s="6"/>
       <c r="F681" s="6"/>
-      <c r="G681" s="32"/>
+      <c r="G681" s="18"/>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" s="10"/>
@@ -12225,7 +12801,7 @@
       <c r="D682" s="6"/>
       <c r="E682" s="6"/>
       <c r="F682" s="6"/>
-      <c r="G682" s="32"/>
+      <c r="G682" s="18"/>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" s="10"/>
@@ -12234,7 +12810,7 @@
       <c r="D683" s="6"/>
       <c r="E683" s="6"/>
       <c r="F683" s="6"/>
-      <c r="G683" s="32"/>
+      <c r="G683" s="18"/>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="10"/>
@@ -12243,7 +12819,7 @@
       <c r="D684" s="6"/>
       <c r="E684" s="6"/>
       <c r="F684" s="6"/>
-      <c r="G684" s="32"/>
+      <c r="G684" s="18"/>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="10"/>
@@ -12252,7 +12828,7 @@
       <c r="D685" s="6"/>
       <c r="E685" s="6"/>
       <c r="F685" s="6"/>
-      <c r="G685" s="32"/>
+      <c r="G685" s="18"/>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" s="10"/>
@@ -12261,7 +12837,7 @@
       <c r="D686" s="6"/>
       <c r="E686" s="6"/>
       <c r="F686" s="6"/>
-      <c r="G686" s="32"/>
+      <c r="G686" s="18"/>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" s="10"/>
@@ -12270,7 +12846,7 @@
       <c r="D687" s="6"/>
       <c r="E687" s="6"/>
       <c r="F687" s="6"/>
-      <c r="G687" s="32"/>
+      <c r="G687" s="18"/>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" s="10"/>
@@ -12279,7 +12855,7 @@
       <c r="D688" s="6"/>
       <c r="E688" s="6"/>
       <c r="F688" s="6"/>
-      <c r="G688" s="32"/>
+      <c r="G688" s="18"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" s="10"/>
@@ -12288,7 +12864,7 @@
       <c r="D689" s="6"/>
       <c r="E689" s="6"/>
       <c r="F689" s="6"/>
-      <c r="G689" s="32"/>
+      <c r="G689" s="18"/>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" s="10"/>
@@ -12297,7 +12873,7 @@
       <c r="D690" s="6"/>
       <c r="E690" s="6"/>
       <c r="F690" s="6"/>
-      <c r="G690" s="32"/>
+      <c r="G690" s="18"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" s="10"/>
@@ -12306,7 +12882,7 @@
       <c r="D691" s="6"/>
       <c r="E691" s="6"/>
       <c r="F691" s="6"/>
-      <c r="G691" s="32"/>
+      <c r="G691" s="18"/>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" s="10"/>
@@ -12315,7 +12891,7 @@
       <c r="D692" s="6"/>
       <c r="E692" s="6"/>
       <c r="F692" s="6"/>
-      <c r="G692" s="32"/>
+      <c r="G692" s="18"/>
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" s="10"/>
@@ -12324,7 +12900,7 @@
       <c r="D693" s="6"/>
       <c r="E693" s="6"/>
       <c r="F693" s="6"/>
-      <c r="G693" s="32"/>
+      <c r="G693" s="18"/>
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" s="10"/>
@@ -12333,7 +12909,7 @@
       <c r="D694" s="6"/>
       <c r="E694" s="6"/>
       <c r="F694" s="6"/>
-      <c r="G694" s="32"/>
+      <c r="G694" s="18"/>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" s="10"/>
@@ -12342,7 +12918,7 @@
       <c r="D695" s="6"/>
       <c r="E695" s="6"/>
       <c r="F695" s="6"/>
-      <c r="G695" s="32"/>
+      <c r="G695" s="18"/>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" s="10"/>
@@ -12351,7 +12927,7 @@
       <c r="D696" s="6"/>
       <c r="E696" s="6"/>
       <c r="F696" s="6"/>
-      <c r="G696" s="32"/>
+      <c r="G696" s="18"/>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" s="10"/>
@@ -12360,7 +12936,7 @@
       <c r="D697" s="6"/>
       <c r="E697" s="6"/>
       <c r="F697" s="6"/>
-      <c r="G697" s="32"/>
+      <c r="G697" s="18"/>
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" s="10"/>
@@ -12369,7 +12945,7 @@
       <c r="D698" s="6"/>
       <c r="E698" s="6"/>
       <c r="F698" s="6"/>
-      <c r="G698" s="32"/>
+      <c r="G698" s="18"/>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" s="10"/>
@@ -12378,7 +12954,7 @@
       <c r="D699" s="6"/>
       <c r="E699" s="6"/>
       <c r="F699" s="6"/>
-      <c r="G699" s="32"/>
+      <c r="G699" s="18"/>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" s="10"/>
@@ -12387,7 +12963,7 @@
       <c r="D700" s="6"/>
       <c r="E700" s="6"/>
       <c r="F700" s="6"/>
-      <c r="G700" s="32"/>
+      <c r="G700" s="18"/>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" s="10"/>
@@ -12396,7 +12972,7 @@
       <c r="D701" s="6"/>
       <c r="E701" s="6"/>
       <c r="F701" s="6"/>
-      <c r="G701" s="32"/>
+      <c r="G701" s="18"/>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" s="10"/>
@@ -12405,7 +12981,7 @@
       <c r="D702" s="6"/>
       <c r="E702" s="6"/>
       <c r="F702" s="6"/>
-      <c r="G702" s="32"/>
+      <c r="G702" s="18"/>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" s="10"/>
@@ -12414,7 +12990,7 @@
       <c r="D703" s="6"/>
       <c r="E703" s="6"/>
       <c r="F703" s="6"/>
-      <c r="G703" s="32"/>
+      <c r="G703" s="18"/>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" s="10"/>
@@ -12423,7 +12999,7 @@
       <c r="D704" s="6"/>
       <c r="E704" s="6"/>
       <c r="F704" s="6"/>
-      <c r="G704" s="32"/>
+      <c r="G704" s="18"/>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" s="10"/>
@@ -12432,7 +13008,7 @@
       <c r="D705" s="6"/>
       <c r="E705" s="6"/>
       <c r="F705" s="6"/>
-      <c r="G705" s="32"/>
+      <c r="G705" s="18"/>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" s="10"/>
@@ -12441,7 +13017,7 @@
       <c r="D706" s="6"/>
       <c r="E706" s="6"/>
       <c r="F706" s="6"/>
-      <c r="G706" s="32"/>
+      <c r="G706" s="18"/>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" s="10"/>
@@ -12450,7 +13026,7 @@
       <c r="D707" s="6"/>
       <c r="E707" s="6"/>
       <c r="F707" s="6"/>
-      <c r="G707" s="32"/>
+      <c r="G707" s="18"/>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" s="10"/>
@@ -12459,7 +13035,7 @@
       <c r="D708" s="6"/>
       <c r="E708" s="6"/>
       <c r="F708" s="6"/>
-      <c r="G708" s="32"/>
+      <c r="G708" s="18"/>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" s="10"/>
@@ -12468,7 +13044,7 @@
       <c r="D709" s="6"/>
       <c r="E709" s="6"/>
       <c r="F709" s="6"/>
-      <c r="G709" s="32"/>
+      <c r="G709" s="18"/>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" s="10"/>
@@ -12477,7 +13053,7 @@
       <c r="D710" s="6"/>
       <c r="E710" s="6"/>
       <c r="F710" s="6"/>
-      <c r="G710" s="32"/>
+      <c r="G710" s="18"/>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" s="10"/>
@@ -12486,7 +13062,7 @@
       <c r="D711" s="6"/>
       <c r="E711" s="6"/>
       <c r="F711" s="6"/>
-      <c r="G711" s="32"/>
+      <c r="G711" s="18"/>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" s="10"/>
@@ -12495,7 +13071,7 @@
       <c r="D712" s="6"/>
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
-      <c r="G712" s="32"/>
+      <c r="G712" s="18"/>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" s="10"/>
@@ -12504,7 +13080,7 @@
       <c r="D713" s="6"/>
       <c r="E713" s="6"/>
       <c r="F713" s="6"/>
-      <c r="G713" s="32"/>
+      <c r="G713" s="18"/>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" s="10"/>
@@ -12513,7 +13089,7 @@
       <c r="D714" s="6"/>
       <c r="E714" s="6"/>
       <c r="F714" s="6"/>
-      <c r="G714" s="32"/>
+      <c r="G714" s="18"/>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" s="10"/>
@@ -12522,7 +13098,7 @@
       <c r="D715" s="6"/>
       <c r="E715" s="6"/>
       <c r="F715" s="6"/>
-      <c r="G715" s="32"/>
+      <c r="G715" s="18"/>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" s="10"/>
@@ -12531,7 +13107,7 @@
       <c r="D716" s="6"/>
       <c r="E716" s="6"/>
       <c r="F716" s="6"/>
-      <c r="G716" s="32"/>
+      <c r="G716" s="18"/>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" s="10"/>
@@ -12540,7 +13116,7 @@
       <c r="D717" s="6"/>
       <c r="E717" s="6"/>
       <c r="F717" s="6"/>
-      <c r="G717" s="32"/>
+      <c r="G717" s="18"/>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" s="10"/>
@@ -12549,7 +13125,7 @@
       <c r="D718" s="6"/>
       <c r="E718" s="6"/>
       <c r="F718" s="6"/>
-      <c r="G718" s="32"/>
+      <c r="G718" s="18"/>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" s="10"/>
@@ -12558,7 +13134,7 @@
       <c r="D719" s="6"/>
       <c r="E719" s="6"/>
       <c r="F719" s="6"/>
-      <c r="G719" s="32"/>
+      <c r="G719" s="18"/>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" s="10"/>
@@ -12567,7 +13143,7 @@
       <c r="D720" s="6"/>
       <c r="E720" s="6"/>
       <c r="F720" s="6"/>
-      <c r="G720" s="32"/>
+      <c r="G720" s="18"/>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" s="10"/>
@@ -12576,7 +13152,7 @@
       <c r="D721" s="6"/>
       <c r="E721" s="6"/>
       <c r="F721" s="6"/>
-      <c r="G721" s="32"/>
+      <c r="G721" s="18"/>
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" s="10"/>
@@ -12585,7 +13161,7 @@
       <c r="D722" s="6"/>
       <c r="E722" s="6"/>
       <c r="F722" s="6"/>
-      <c r="G722" s="32"/>
+      <c r="G722" s="18"/>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" s="10"/>
@@ -12594,7 +13170,7 @@
       <c r="D723" s="6"/>
       <c r="E723" s="6"/>
       <c r="F723" s="6"/>
-      <c r="G723" s="32"/>
+      <c r="G723" s="18"/>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" s="10"/>
@@ -12603,7 +13179,7 @@
       <c r="D724" s="6"/>
       <c r="E724" s="6"/>
       <c r="F724" s="6"/>
-      <c r="G724" s="32"/>
+      <c r="G724" s="18"/>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" s="10"/>
@@ -12612,7 +13188,7 @@
       <c r="D725" s="6"/>
       <c r="E725" s="6"/>
       <c r="F725" s="6"/>
-      <c r="G725" s="32"/>
+      <c r="G725" s="18"/>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" s="10"/>
@@ -12621,7 +13197,7 @@
       <c r="D726" s="6"/>
       <c r="E726" s="6"/>
       <c r="F726" s="6"/>
-      <c r="G726" s="32"/>
+      <c r="G726" s="18"/>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" s="10"/>
@@ -12630,7 +13206,7 @@
       <c r="D727" s="6"/>
       <c r="E727" s="6"/>
       <c r="F727" s="6"/>
-      <c r="G727" s="32"/>
+      <c r="G727" s="18"/>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" s="10"/>
@@ -12639,7 +13215,7 @@
       <c r="D728" s="6"/>
       <c r="E728" s="6"/>
       <c r="F728" s="6"/>
-      <c r="G728" s="32"/>
+      <c r="G728" s="18"/>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" s="10"/>
@@ -12648,7 +13224,7 @@
       <c r="D729" s="6"/>
       <c r="E729" s="6"/>
       <c r="F729" s="6"/>
-      <c r="G729" s="32"/>
+      <c r="G729" s="18"/>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" s="10"/>
@@ -12657,7 +13233,7 @@
       <c r="D730" s="6"/>
       <c r="E730" s="6"/>
       <c r="F730" s="6"/>
-      <c r="G730" s="32"/>
+      <c r="G730" s="18"/>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731" s="10"/>
@@ -12666,7 +13242,7 @@
       <c r="D731" s="6"/>
       <c r="E731" s="6"/>
       <c r="F731" s="6"/>
-      <c r="G731" s="32"/>
+      <c r="G731" s="18"/>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" s="10"/>
@@ -12675,7 +13251,7 @@
       <c r="D732" s="6"/>
       <c r="E732" s="6"/>
       <c r="F732" s="6"/>
-      <c r="G732" s="32"/>
+      <c r="G732" s="18"/>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" s="10"/>
@@ -12684,7 +13260,7 @@
       <c r="D733" s="6"/>
       <c r="E733" s="6"/>
       <c r="F733" s="6"/>
-      <c r="G733" s="32"/>
+      <c r="G733" s="18"/>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" s="10"/>
@@ -12693,7 +13269,7 @@
       <c r="D734" s="6"/>
       <c r="E734" s="6"/>
       <c r="F734" s="6"/>
-      <c r="G734" s="32"/>
+      <c r="G734" s="18"/>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735" s="10"/>
@@ -12702,7 +13278,7 @@
       <c r="D735" s="6"/>
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
-      <c r="G735" s="32"/>
+      <c r="G735" s="18"/>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736" s="10"/>
@@ -12711,7 +13287,7 @@
       <c r="D736" s="6"/>
       <c r="E736" s="6"/>
       <c r="F736" s="6"/>
-      <c r="G736" s="32"/>
+      <c r="G736" s="18"/>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737" s="10"/>
@@ -12720,7 +13296,7 @@
       <c r="D737" s="6"/>
       <c r="E737" s="6"/>
       <c r="F737" s="6"/>
-      <c r="G737" s="32"/>
+      <c r="G737" s="18"/>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738" s="10"/>
@@ -12729,7 +13305,7 @@
       <c r="D738" s="6"/>
       <c r="E738" s="6"/>
       <c r="F738" s="6"/>
-      <c r="G738" s="32"/>
+      <c r="G738" s="18"/>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" s="10"/>
@@ -12738,7 +13314,7 @@
       <c r="D739" s="6"/>
       <c r="E739" s="6"/>
       <c r="F739" s="6"/>
-      <c r="G739" s="32"/>
+      <c r="G739" s="18"/>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" s="10"/>
@@ -12747,7 +13323,7 @@
       <c r="D740" s="6"/>
       <c r="E740" s="6"/>
       <c r="F740" s="6"/>
-      <c r="G740" s="32"/>
+      <c r="G740" s="18"/>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" s="10"/>
@@ -12756,7 +13332,7 @@
       <c r="D741" s="6"/>
       <c r="E741" s="6"/>
       <c r="F741" s="6"/>
-      <c r="G741" s="32"/>
+      <c r="G741" s="18"/>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B742" s="6"/>
@@ -12764,7 +13340,7 @@
       <c r="D742" s="6"/>
       <c r="E742" s="6"/>
       <c r="F742" s="6"/>
-      <c r="G742" s="32"/>
+      <c r="G742" s="18"/>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B743" s="6"/>
@@ -12772,7 +13348,7 @@
       <c r="D743" s="6"/>
       <c r="E743" s="6"/>
       <c r="F743" s="6"/>
-      <c r="G743" s="32"/>
+      <c r="G743" s="18"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -12783,1138 +13359,1508 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:F743 J30:J31 I6:J29 I32:J34 J35 I36:J36 J37 I38:J51 J52:J56 I57:J57 J58:J61 H71:J743 I62:J70">
-    <cfRule type="expression" dxfId="244" priority="230">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J31 B6:G29 I6:J29 I32:J34 J35 I36:J36 J37 I38:J51 J52:J56 I57:J57 J58:J61 B71:J743 B30:F70 I62:J70">
-    <cfRule type="expression" dxfId="243" priority="231">
+  <conditionalFormatting sqref="B6:F743 J30:J31 I6:J29 I32:J34 J35 I36:J36 J37 I38:J51 J52:J56 I57:J57 J58:J61 H71:J71 I62:J70 H77:J80 H83:J89 I81:J82 H92:J96 I90:J91 H98:J98 I97:J97 H102:J105 I99:J101 H114:J116 I106:J113 H119:J743 I117:J117 J118 H73:J73 I72:J72 I74:J76">
+    <cfRule type="expression" dxfId="306" priority="304">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J31 B6:G29 I6:J29 I32:J34 J35 I36:J36 J37 I38:J51 J52:J56 I57:J57 J58:J61 B71:J71 B30:F70 I62:J70 B77:J80 B75:F76 B83:J89 B81:F82 I81:J82 B92:J96 B90:F91 I90:J91 B98:J98 B97:F97 I97:J97 B102:J105 B99:F101 B114:J116 B106:F113 I106:J113 B119:J743 I117:J117 B117:F118 J118 I99:J101 B73:J73 B72:G72 I72:J72 B74:G74 I74:J76">
+    <cfRule type="expression" dxfId="305" priority="305">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:A741">
-    <cfRule type="expression" dxfId="242" priority="227">
+    <cfRule type="expression" dxfId="304" priority="301">
       <formula>$C99:$C826="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A741">
-    <cfRule type="expression" dxfId="241" priority="228">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G71:G743 G6:G29">
-    <cfRule type="expression" dxfId="240" priority="225">
+    <cfRule type="expression" dxfId="303" priority="302">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G71:G74 G6:G29 G77:G80 G83:G89 G92:G96 G98 G102:G105 G114:G116 G119:G743">
+    <cfRule type="expression" dxfId="302" priority="299">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95:A98">
-    <cfRule type="expression" dxfId="239" priority="232">
+    <cfRule type="expression" dxfId="301" priority="306">
       <formula>$C95:$C823="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A52 A57:A73">
-    <cfRule type="expression" dxfId="238" priority="249">
+    <cfRule type="expression" dxfId="300" priority="323">
       <formula>$C23:$C755="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A30 A75:A79 A81:A82 A84:A85 A87:A88 A90:A91 A93:A94 A96:A97 A99:A100 A102:A103 A105:A106 A108:A109 A111:A112 A114:A115 A117:A118">
-    <cfRule type="expression" dxfId="237" priority="257">
+    <cfRule type="expression" dxfId="299" priority="331">
       <formula>$C23:$C756="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A22">
-    <cfRule type="expression" dxfId="236" priority="284">
+    <cfRule type="expression" dxfId="298" priority="358">
       <formula>$C15:$C749="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A22">
-    <cfRule type="expression" dxfId="235" priority="293">
+    <cfRule type="expression" dxfId="297" priority="367">
       <formula>$C12:$C747="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A14">
-    <cfRule type="expression" dxfId="234" priority="304">
+    <cfRule type="expression" dxfId="296" priority="378">
       <formula>$C9:$C745="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A8">
-    <cfRule type="expression" dxfId="233" priority="313">
+    <cfRule type="expression" dxfId="295" priority="387">
       <formula>$C6:$C743="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A94">
-    <cfRule type="expression" dxfId="232" priority="314">
+    <cfRule type="expression" dxfId="294" priority="388">
       <formula>$C86:$C815="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:A85 A53:A56">
-    <cfRule type="expression" dxfId="231" priority="333">
+    <cfRule type="expression" dxfId="293" priority="407">
       <formula>$C53:$C783="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A119">
-    <cfRule type="expression" dxfId="230" priority="346">
+    <cfRule type="expression" dxfId="292" priority="420">
       <formula>$C31:$C762="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="223" priority="223">
+    <cfRule type="expression" dxfId="291" priority="297">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="222" priority="224">
+    <cfRule type="expression" dxfId="290" priority="298">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="221" priority="221">
+    <cfRule type="expression" dxfId="289" priority="295">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="220" priority="222">
+    <cfRule type="expression" dxfId="288" priority="296">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="219" priority="219">
+    <cfRule type="expression" dxfId="287" priority="293">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="218" priority="220">
+    <cfRule type="expression" dxfId="286" priority="294">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="217" priority="217">
+    <cfRule type="expression" dxfId="285" priority="291">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="216" priority="218">
+    <cfRule type="expression" dxfId="284" priority="292">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="215" priority="215">
+    <cfRule type="expression" dxfId="283" priority="289">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="214" priority="216">
+    <cfRule type="expression" dxfId="282" priority="290">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="213" priority="213">
+    <cfRule type="expression" dxfId="281" priority="287">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="212" priority="214">
+    <cfRule type="expression" dxfId="280" priority="288">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="211" priority="211">
+    <cfRule type="expression" dxfId="279" priority="285">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="210" priority="212">
+    <cfRule type="expression" dxfId="278" priority="286">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="209" priority="209">
+    <cfRule type="expression" dxfId="277" priority="283">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="208" priority="210">
+    <cfRule type="expression" dxfId="276" priority="284">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="207" priority="207">
+    <cfRule type="expression" dxfId="275" priority="281">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="206" priority="208">
+    <cfRule type="expression" dxfId="274" priority="282">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="205" priority="205">
+    <cfRule type="expression" dxfId="273" priority="279">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="204" priority="206">
+    <cfRule type="expression" dxfId="272" priority="280">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="203" priority="203">
+    <cfRule type="expression" dxfId="271" priority="277">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="202" priority="204">
+    <cfRule type="expression" dxfId="270" priority="278">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="201" priority="201">
+    <cfRule type="expression" dxfId="269" priority="275">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="200" priority="202">
+    <cfRule type="expression" dxfId="268" priority="276">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="199" priority="199">
+    <cfRule type="expression" dxfId="267" priority="273">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="198" priority="200">
+    <cfRule type="expression" dxfId="266" priority="274">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="197" priority="197">
+    <cfRule type="expression" dxfId="265" priority="271">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="196" priority="198">
+    <cfRule type="expression" dxfId="264" priority="272">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="195" priority="195">
+    <cfRule type="expression" dxfId="263" priority="269">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="194" priority="196">
+    <cfRule type="expression" dxfId="262" priority="270">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="193" priority="193">
+    <cfRule type="expression" dxfId="261" priority="267">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="192" priority="194">
+    <cfRule type="expression" dxfId="260" priority="268">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="191" priority="191">
+    <cfRule type="expression" dxfId="259" priority="265">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="190" priority="192">
+    <cfRule type="expression" dxfId="258" priority="266">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="189" priority="189">
+    <cfRule type="expression" dxfId="257" priority="263">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="188" priority="190">
+    <cfRule type="expression" dxfId="256" priority="264">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="187" priority="187">
+    <cfRule type="expression" dxfId="255" priority="261">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="186" priority="188">
+    <cfRule type="expression" dxfId="254" priority="262">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="185" priority="185">
+    <cfRule type="expression" dxfId="253" priority="259">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="184" priority="186">
+    <cfRule type="expression" dxfId="252" priority="260">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="183" priority="183">
+    <cfRule type="expression" dxfId="251" priority="257">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="182" priority="184">
+    <cfRule type="expression" dxfId="250" priority="258">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="181" priority="181">
+    <cfRule type="expression" dxfId="249" priority="255">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30 I30">
-    <cfRule type="expression" dxfId="180" priority="182">
+    <cfRule type="expression" dxfId="248" priority="256">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="179" priority="180">
+    <cfRule type="expression" dxfId="247" priority="254">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="178" priority="178">
+    <cfRule type="expression" dxfId="246" priority="252">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="177" priority="179">
+    <cfRule type="expression" dxfId="245" priority="253">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="176" priority="176">
+    <cfRule type="expression" dxfId="244" priority="250">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31 I31">
-    <cfRule type="expression" dxfId="175" priority="177">
+    <cfRule type="expression" dxfId="243" priority="251">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="174" priority="175">
+    <cfRule type="expression" dxfId="242" priority="249">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="173" priority="173">
+    <cfRule type="expression" dxfId="241" priority="247">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="172" priority="174">
+    <cfRule type="expression" dxfId="240" priority="248">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="171" priority="172">
+    <cfRule type="expression" dxfId="239" priority="246">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="170" priority="171">
+    <cfRule type="expression" dxfId="238" priority="245">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="169" priority="169">
+    <cfRule type="expression" dxfId="237" priority="243">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="168" priority="170">
+    <cfRule type="expression" dxfId="236" priority="244">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="167" priority="168">
+    <cfRule type="expression" dxfId="235" priority="242">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="166" priority="167">
+    <cfRule type="expression" dxfId="234" priority="241">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="165" priority="165">
+    <cfRule type="expression" dxfId="233" priority="239">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="164" priority="166">
+    <cfRule type="expression" dxfId="232" priority="240">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="163" priority="163">
+    <cfRule type="expression" dxfId="231" priority="237">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="162" priority="164">
+    <cfRule type="expression" dxfId="230" priority="238">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="161" priority="161">
+    <cfRule type="expression" dxfId="229" priority="235">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="160" priority="162">
+    <cfRule type="expression" dxfId="228" priority="236">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="159" priority="159">
+    <cfRule type="expression" dxfId="227" priority="233">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="158" priority="160">
+    <cfRule type="expression" dxfId="226" priority="234">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="157" priority="158">
+    <cfRule type="expression" dxfId="225" priority="232">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="156" priority="157">
+    <cfRule type="expression" dxfId="224" priority="231">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="155" priority="155">
+    <cfRule type="expression" dxfId="223" priority="229">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="154" priority="156">
+    <cfRule type="expression" dxfId="222" priority="230">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="153" priority="153">
+    <cfRule type="expression" dxfId="221" priority="227">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="152" priority="154">
+    <cfRule type="expression" dxfId="220" priority="228">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="151" priority="152">
+    <cfRule type="expression" dxfId="219" priority="226">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="150" priority="151">
+    <cfRule type="expression" dxfId="218" priority="225">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="149" priority="149">
+    <cfRule type="expression" dxfId="217" priority="223">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="148" priority="150">
+    <cfRule type="expression" dxfId="216" priority="224">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="147" priority="148">
+    <cfRule type="expression" dxfId="215" priority="222">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="expression" dxfId="146" priority="147">
+    <cfRule type="expression" dxfId="214" priority="221">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="145" priority="145">
+    <cfRule type="expression" dxfId="213" priority="219">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="144" priority="146">
+    <cfRule type="expression" dxfId="212" priority="220">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="211" priority="217">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="210" priority="218">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="expression" dxfId="209" priority="216">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="expression" dxfId="208" priority="215">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="207" priority="213">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="206" priority="214">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="205" priority="211">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="204" priority="212">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="expression" dxfId="203" priority="210">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="expression" dxfId="202" priority="209">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="expression" dxfId="201" priority="207">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="expression" dxfId="200" priority="208">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="expression" dxfId="199" priority="206">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="expression" dxfId="198" priority="205">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="expression" dxfId="197" priority="203">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="expression" dxfId="196" priority="204">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="expression" dxfId="195" priority="202">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="expression" dxfId="194" priority="201">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" dxfId="193" priority="199">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" dxfId="192" priority="200">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="expression" dxfId="191" priority="198">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="expression" dxfId="190" priority="197">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="189" priority="195">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="188" priority="196">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="expression" dxfId="187" priority="194">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="expression" dxfId="186" priority="193">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" dxfId="185" priority="191">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="expression" dxfId="184" priority="192">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" dxfId="183" priority="190">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" dxfId="182" priority="189">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" dxfId="181" priority="187">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" dxfId="180" priority="188">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="expression" dxfId="179" priority="186">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="expression" dxfId="178" priority="185">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="expression" dxfId="177" priority="184">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="expression" dxfId="176" priority="183">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" dxfId="175" priority="181">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" dxfId="174" priority="182">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="expression" dxfId="173" priority="180">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="expression" dxfId="172" priority="179">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" dxfId="171" priority="177">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" dxfId="170" priority="178">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="169" priority="175">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="168" priority="176">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="expression" dxfId="167" priority="174">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47">
+    <cfRule type="expression" dxfId="166" priority="173">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="165" priority="171">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="164" priority="172">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="163" priority="170">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="162" priority="169">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="161" priority="168">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="160" priority="167">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="159" priority="165">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="158" priority="166">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="157" priority="164">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="156" priority="163">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" dxfId="155" priority="161">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" dxfId="154" priority="162">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" dxfId="153" priority="160">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="expression" dxfId="152" priority="159">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="151" priority="157">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="150" priority="158">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="expression" dxfId="149" priority="155">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="expression" dxfId="148" priority="156">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" dxfId="147" priority="154">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" dxfId="146" priority="153">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" dxfId="145" priority="151">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" dxfId="144" priority="152">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:I54">
     <cfRule type="expression" dxfId="143" priority="143">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
+  <conditionalFormatting sqref="I53:I54">
     <cfRule type="expression" dxfId="142" priority="144">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G53:G54">
     <cfRule type="expression" dxfId="141" priority="142">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G53:G54">
     <cfRule type="expression" dxfId="140" priority="141">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H53:H54">
     <cfRule type="expression" dxfId="139" priority="139">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H53:H54">
     <cfRule type="expression" dxfId="138" priority="140">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="I55">
     <cfRule type="expression" dxfId="137" priority="137">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="I55">
     <cfRule type="expression" dxfId="136" priority="138">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G55">
     <cfRule type="expression" dxfId="135" priority="136">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G55">
     <cfRule type="expression" dxfId="134" priority="135">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H55">
     <cfRule type="expression" dxfId="133" priority="133">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
+  <conditionalFormatting sqref="H55">
     <cfRule type="expression" dxfId="132" priority="134">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="131" priority="132">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="130" priority="131">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="129" priority="129">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="128" priority="130">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="127" priority="128">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="126" priority="127">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" dxfId="131" priority="131">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="expression" dxfId="130" priority="132">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="expression" dxfId="129" priority="130">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="expression" dxfId="128" priority="129">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="expression" dxfId="127" priority="127">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="expression" dxfId="126" priority="128">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
     <cfRule type="expression" dxfId="125" priority="125">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H57">
     <cfRule type="expression" dxfId="124" priority="126">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G57">
     <cfRule type="expression" dxfId="123" priority="124">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41">
+  <conditionalFormatting sqref="G57">
     <cfRule type="expression" dxfId="122" priority="123">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="I58">
     <cfRule type="expression" dxfId="121" priority="121">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="I58">
     <cfRule type="expression" dxfId="120" priority="122">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="119" priority="120">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="118" priority="119">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="117" priority="117">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="116" priority="118">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="115" priority="116">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="114" priority="115">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="113" priority="113">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="112" priority="114">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="111" priority="112">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="110" priority="111">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="109" priority="110">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="108" priority="109">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="107" priority="107">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="106" priority="108">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="105" priority="106">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="104" priority="105">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="103" priority="103">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="102" priority="104">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="101" priority="101">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="100" priority="102">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="expression" dxfId="99" priority="100">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47">
-    <cfRule type="expression" dxfId="98" priority="99">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="97" priority="97">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="96" priority="98">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="95" priority="96">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="94" priority="95">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="93" priority="94">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="92" priority="93">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="91" priority="91">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="90" priority="92">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="89" priority="90">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="88" priority="89">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="87" priority="87">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="86" priority="88">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="85" priority="86">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="84" priority="85">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="83" priority="83">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="82" priority="84">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="81" priority="81">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="80" priority="82">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="79" priority="80">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="78" priority="79">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="77" priority="77">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="76" priority="78">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:I54">
-    <cfRule type="expression" dxfId="69" priority="69">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:I54">
-    <cfRule type="expression" dxfId="68" priority="70">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:G54">
-    <cfRule type="expression" dxfId="67" priority="68">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53:G54">
-    <cfRule type="expression" dxfId="66" priority="67">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
-    <cfRule type="expression" dxfId="65" priority="65">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H54">
-    <cfRule type="expression" dxfId="64" priority="66">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="63" priority="63">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="62" priority="64">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="61" priority="62">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="60" priority="61">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="59" priority="59">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="58" priority="60">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="57" priority="57">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="56" priority="58">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="55" priority="56">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="expression" dxfId="53" priority="53">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" dxfId="51" priority="51">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="expression" dxfId="50" priority="52">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="expression" dxfId="47" priority="47">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58">
-    <cfRule type="expression" dxfId="46" priority="48">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="119" priority="119">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="118" priority="120">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="117" priority="118">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="116" priority="117">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:I60">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="115" priority="109">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:I60">
-    <cfRule type="expression" dxfId="34" priority="36">
+    <cfRule type="expression" dxfId="114" priority="110">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="113" priority="107">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="112" priority="108">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:G60">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="111" priority="106">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:G60">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="110" priority="105">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="109" priority="103">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="108" priority="104">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="107" priority="101">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="106" priority="102">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="105" priority="100">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="104" priority="99">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="103" priority="97">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="102" priority="98">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="101" priority="96">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="100" priority="95">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="99" priority="93">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="98" priority="94">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="97" priority="92">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="96" priority="91">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="95" priority="89">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="93" priority="88">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="92" priority="87">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="91" priority="85">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="89" priority="84">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="88" priority="83">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="87" priority="81">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="85" priority="80">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="84" priority="79">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H70">
+    <cfRule type="expression" dxfId="83" priority="77">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67:H70">
+    <cfRule type="expression" dxfId="82" priority="78">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:G70">
+    <cfRule type="expression" dxfId="81" priority="76">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:G70">
+    <cfRule type="expression" dxfId="80" priority="75">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75">
+    <cfRule type="expression" dxfId="79" priority="74">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G75">
+    <cfRule type="expression" dxfId="78" priority="73">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="expression" dxfId="77" priority="71">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="expression" dxfId="76" priority="72">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="expression" dxfId="75" priority="70">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="expression" dxfId="74" priority="69">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" dxfId="73" priority="67">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="expression" dxfId="72" priority="68">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="expression" dxfId="71" priority="66">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="expression" dxfId="70" priority="65">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="expression" dxfId="69" priority="63">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="expression" dxfId="68" priority="64">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" dxfId="67" priority="62">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G82">
+    <cfRule type="expression" dxfId="66" priority="61">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="65" priority="59">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="expression" dxfId="64" priority="60">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" dxfId="63" priority="58">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G90">
+    <cfRule type="expression" dxfId="62" priority="57">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="expression" dxfId="61" priority="55">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="expression" dxfId="60" priority="56">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="expression" dxfId="59" priority="54">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91">
+    <cfRule type="expression" dxfId="58" priority="53">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="expression" dxfId="57" priority="51">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H91">
+    <cfRule type="expression" dxfId="56" priority="52">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="expression" dxfId="55" priority="50">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="expression" dxfId="54" priority="49">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="expression" dxfId="53" priority="47">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="expression" dxfId="52" priority="48">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="expression" dxfId="51" priority="46">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="expression" dxfId="50" priority="45">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="expression" dxfId="49" priority="43">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="expression" dxfId="48" priority="44">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G101">
+    <cfRule type="expression" dxfId="47" priority="42">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G101">
+    <cfRule type="expression" dxfId="46" priority="41">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="expression" dxfId="45" priority="39">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H101">
+    <cfRule type="expression" dxfId="44" priority="40">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="expression" dxfId="43" priority="37">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="expression" dxfId="42" priority="38">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="expression" dxfId="41" priority="36">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G106">
+    <cfRule type="expression" dxfId="40" priority="35">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107">
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
+    <cfRule type="expression" dxfId="37" priority="32">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
+    <cfRule type="expression" dxfId="36" priority="31">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="expression" dxfId="35" priority="29">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H108">
+    <cfRule type="expression" dxfId="34" priority="30">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="expression" dxfId="33" priority="28">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108">
+    <cfRule type="expression" dxfId="32" priority="27">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
+    <cfRule type="expression" dxfId="30" priority="26">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="expression" dxfId="29" priority="24">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G109">
+    <cfRule type="expression" dxfId="28" priority="23">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:H113">
+    <cfRule type="expression" dxfId="27" priority="21">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110:H113">
+    <cfRule type="expression" dxfId="26" priority="22">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110:G113">
+    <cfRule type="expression" dxfId="25" priority="20">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110:G113">
+    <cfRule type="expression" dxfId="24" priority="19">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="expression" dxfId="21" priority="16">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="expression" dxfId="20" priority="15">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118">
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="expression" dxfId="16" priority="12">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118">
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G118">
+    <cfRule type="expression" dxfId="14" priority="9">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H100">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100">
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H70">
+  <conditionalFormatting sqref="H72">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:G70">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>#REF!="High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67:G70">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="H74">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>#REF!="High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14086,62 +15032,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="20" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -14664,32 +15610,32 @@
     <mergeCell ref="A3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:A56">
-    <cfRule type="expression" dxfId="229" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A56">
-    <cfRule type="expression" dxfId="228" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$C6:$C739="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B56">
-    <cfRule type="expression" dxfId="227" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B56">
-    <cfRule type="expression" dxfId="226" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F56">
-    <cfRule type="expression" dxfId="225" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:F56">
-    <cfRule type="expression" dxfId="224" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>#REF!="High"</formula>
     </cfRule>
   </conditionalFormatting>
